--- a/6-Quantification/Results/BCA_results_calcuations.xlsx
+++ b/6-Quantification/Results/BCA_results_calcuations.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bnortonb/Documents/Automation_paper/Protocol_code/6-Quantification/Results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bnortonb/Documents/Automation_paper/opentrons/6-Quantification/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C51CCC1-2638-564E-B09F-760443AE2BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E67654-295D-7D4F-8BAB-D77B70DCA15D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="3840" windowWidth="33780" windowHeight="20840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17780" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="1st half plate" sheetId="1" r:id="rId1"/>
-    <sheet name="2nd half plate" sheetId="2" r:id="rId2"/>
+    <sheet name="col1-6" sheetId="1" r:id="rId1"/>
+    <sheet name="col7-12" sheetId="2" r:id="rId2"/>
     <sheet name="Combine" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
@@ -39,79 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="122">
-  <si>
-    <t>Software Version</t>
-  </si>
-  <si>
-    <t>3.12.08</t>
-  </si>
-  <si>
-    <t>Experiment File Path:</t>
-  </si>
-  <si>
-    <t>C:\Users\Opentrons\Desktop\Brenna\Experiments\2023-02-02\2023-02-02-BCA_P740_col1-6.xpt</t>
-  </si>
-  <si>
-    <t>Protocol File Path:</t>
-  </si>
-  <si>
-    <t>C:\Users\Opentrons\Desktop\Brenna\Protocols\BCA_480nm.prt</t>
-  </si>
-  <si>
-    <t>Plate Number</t>
-  </si>
-  <si>
-    <t>Plate 1</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>Reader Type:</t>
-  </si>
-  <si>
-    <t>Synergy H1</t>
-  </si>
-  <si>
-    <t>Reader Serial Number:</t>
-  </si>
-  <si>
-    <t>Reading Type</t>
-  </si>
-  <si>
-    <t>Reader</t>
-  </si>
-  <si>
-    <t>Procedure Details</t>
-  </si>
-  <si>
-    <t>Plate Type</t>
-  </si>
-  <si>
-    <t>96 WELL PLATE (Use plate lid)</t>
-  </si>
-  <si>
-    <t>Eject plate on completion</t>
-  </si>
-  <si>
-    <t>Read</t>
-  </si>
-  <si>
-    <t>Absorbance Endpoint</t>
-  </si>
-  <si>
-    <t>Full Plate</t>
-  </si>
-  <si>
-    <t>Wavelengths:  480</t>
-  </si>
-  <si>
-    <t>Read Speed: Normal,  Delay: 100 msec,  Measurements/Data Point: 8</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="95">
   <si>
     <t>Layout</t>
   </si>
@@ -320,9 +248,6 @@
     <t>Results</t>
   </si>
   <si>
-    <t>Actual Temperature:</t>
-  </si>
-  <si>
     <t>Blank</t>
   </si>
   <si>
@@ -347,15 +272,6 @@
     <t>mg/mL</t>
   </si>
   <si>
-    <t>C:\Users\Opentrons\Desktop\Brenna\Experiments\2023-02-02\2023-02-02-BCA_P740_col7-12.xpt</t>
-  </si>
-  <si>
-    <t>BSA Standards</t>
-  </si>
-  <si>
-    <t>Final conc. (ug/mL)</t>
-  </si>
-  <si>
     <t>SPL1</t>
   </si>
   <si>
@@ -405,6 +321,9 @@
   </si>
   <si>
     <t>Percent</t>
+  </si>
+  <si>
+    <t>Input here:</t>
   </si>
 </sst>
 </file>
@@ -414,7 +333,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -481,8 +400,20 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="2" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="2" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -582,6 +513,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6ADD1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -694,10 +631,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -799,6 +734,33 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -811,31 +773,27 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1013,7 +971,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'1st half plate'!$B$59:$B$68</c:f>
+              <c:f>'col1-6'!$B$39:$B$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1052,7 +1010,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'1st half plate'!$C$59:$C$68</c:f>
+              <c:f>'col1-6'!$C$39:$C$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1478,7 +1436,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2nd half plate'!$C$58</c:f>
+              <c:f>'col7-12'!$C$39</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1555,7 +1513,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'2nd half plate'!$B$59:$B$68</c:f>
+              <c:f>'col7-12'!$B$40:$B$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1594,7 +1552,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2nd half plate'!$C$59:$C$68</c:f>
+              <c:f>'col7-12'!$C$40:$C$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3058,13 +3016,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>488950</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3099,13 +3057,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>146050</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>285750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3398,10 +3356,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:O95"/>
+  <dimension ref="A2:O75"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3413,1968 +3371,1863 @@
     <col min="5" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    <row r="2" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B4" s="3"/>
+      <c r="C4" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+      <c r="D4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+      <c r="F4" s="4">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="G4" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+      <c r="H4" s="4">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
+      <c r="I4" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+      <c r="J4" s="4">
         <v>8</v>
       </c>
-      <c r="B7" s="1">
-        <v>44959</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+      <c r="K4" s="4">
         <v>9</v>
       </c>
-      <c r="B8" s="2">
-        <v>0.53032407407407411</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
+      <c r="L4" s="4">
         <v>10</v>
       </c>
-      <c r="B9" t="s">
+      <c r="M4" s="4">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
+      <c r="N4" s="4">
         <v>12</v>
       </c>
-      <c r="B10">
-        <v>22041210</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
+    </row>
+    <row r="5" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="B5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B11" t="s">
+      <c r="E6" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A13" s="3" t="s">
+      <c r="F6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="4"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
+      <c r="G6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B14" t="s">
+      <c r="H6" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
+      <c r="I6" s="27" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
+      <c r="J6" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B16" t="s">
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="B7" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B17" t="s">
+      <c r="C7" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B18" t="s">
+      <c r="D7" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B19" t="s">
+      <c r="E7" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="A21" s="3" t="s">
+      <c r="F7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="4"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B23" s="5"/>
-      <c r="C23" s="6">
+      <c r="G7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="B8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="B9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="B10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="B11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I11" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="B12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I12" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A16" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="4">
         <v>1</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D16" s="4">
         <v>2</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E16" s="4">
         <v>3</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F16" s="4">
         <v>4</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G16" s="4">
         <v>5</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H16" s="4">
         <v>6</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I16" s="4">
         <v>7</v>
       </c>
-      <c r="J23" s="6">
+      <c r="J16" s="4">
         <v>8</v>
       </c>
-      <c r="K23" s="6">
+      <c r="K16" s="4">
         <v>9</v>
       </c>
-      <c r="L23" s="6">
+      <c r="L16" s="4">
         <v>10</v>
       </c>
-      <c r="M23" s="6">
+      <c r="M16" s="4">
         <v>11</v>
       </c>
-      <c r="N23" s="6">
+      <c r="N16" s="4">
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="B24" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24" s="7" t="s">
+    <row r="17" spans="2:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="B17" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="8">
+        <v>0.54</v>
+      </c>
+      <c r="D17" s="8">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="E17" s="8">
+        <v>0.496</v>
+      </c>
+      <c r="F17" s="8">
+        <v>0.51</v>
+      </c>
+      <c r="G17" s="14">
+        <v>0.72299999999999998</v>
+      </c>
+      <c r="H17" s="8">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="I17" s="11">
+        <v>1.522</v>
+      </c>
+      <c r="J17" s="8">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="7">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="B18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="8">
+        <v>0.504</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0.51</v>
+      </c>
+      <c r="E18" s="8">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="F18" s="8">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="G18" s="8">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="H18" s="8">
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="I18" s="12">
+        <v>1.2230000000000001</v>
+      </c>
+      <c r="J18" s="9">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="7">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="B19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="8">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="D19" s="13">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="E19" s="8">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="F19" s="8">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="G19" s="8">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="H19" s="23">
+        <v>1.123</v>
+      </c>
+      <c r="I19" s="13">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="7">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="B20" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I24" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="J24" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="B25" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="7" t="s">
+      <c r="C20" s="8">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="D20" s="22">
+        <v>1.0680000000000001</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="F20" s="15">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="G20" s="8">
+        <v>0.52</v>
+      </c>
+      <c r="H20" s="15">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="I20" s="10">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="7">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="B21" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="I25" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="J25" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="B26" s="6" t="s">
+      <c r="C21" s="8">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="D21" s="8">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="E21" s="8">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="F21" s="15">
+        <v>0.628</v>
+      </c>
+      <c r="G21" s="16">
+        <v>1.335</v>
+      </c>
+      <c r="H21" s="8">
+        <v>0.52</v>
+      </c>
+      <c r="I21" s="14">
+        <v>0.76</v>
+      </c>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="7">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="B22" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="I26" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="B27" s="6" t="s">
+      <c r="C22" s="14">
+        <v>0.7</v>
+      </c>
+      <c r="D22" s="8">
+        <v>0.496</v>
+      </c>
+      <c r="E22" s="8">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="F22" s="8">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="G22" s="15">
+        <v>0.625</v>
+      </c>
+      <c r="H22" s="8">
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="I22" s="15">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="7">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="B23" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="I27" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="B28" s="6" t="s">
+      <c r="C23" s="8">
+        <v>0.55100000000000005</v>
+      </c>
+      <c r="D23" s="8">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="E23" s="8">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="F23" s="8">
+        <v>0.496</v>
+      </c>
+      <c r="G23" s="8">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="H23" s="8">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="I23" s="8">
+        <v>0.54</v>
+      </c>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="7">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="B24" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="I28" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="B29" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C29" s="7" t="s">
+      <c r="C24" s="14">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="D24" s="13">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="E24" s="13">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="F24" s="8">
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="G24" s="8">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="H24" s="15">
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="I24" s="8">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="7">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="B26" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="I29" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="B30" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="I30" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="B31" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="I31" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="A33" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B33" s="4"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
-        <v>93</v>
-      </c>
-      <c r="B34">
-        <v>25.2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B36" s="5"/>
-      <c r="C36" s="6">
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="50"/>
+      <c r="N26" s="50"/>
+      <c r="O26" s="50"/>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B27" s="51"/>
+      <c r="C27" s="52">
         <v>1</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D27" s="52">
         <v>2</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E27" s="52">
         <v>3</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F27" s="52">
         <v>4</v>
       </c>
-      <c r="G36" s="6">
+      <c r="G27" s="52">
         <v>5</v>
       </c>
-      <c r="H36" s="6">
+      <c r="H27" s="52">
         <v>6</v>
       </c>
-      <c r="I36" s="6">
+      <c r="I27" s="52">
         <v>7</v>
       </c>
-      <c r="J36" s="6">
+      <c r="J27" s="52">
         <v>8</v>
       </c>
-      <c r="K36" s="6">
+      <c r="K27" s="52">
         <v>9</v>
       </c>
-      <c r="L36" s="6">
+      <c r="L27" s="52">
         <v>10</v>
       </c>
-      <c r="M36" s="6">
+      <c r="M27" s="52">
         <v>11</v>
       </c>
-      <c r="N36" s="6">
+      <c r="N27" s="52">
         <v>12</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="B37" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C37" s="10">
-        <v>0.54</v>
-      </c>
-      <c r="D37" s="10">
-        <v>0.54600000000000004</v>
-      </c>
-      <c r="E37" s="10">
-        <v>0.496</v>
-      </c>
-      <c r="F37" s="10">
-        <v>0.51</v>
-      </c>
-      <c r="G37" s="16">
-        <v>0.72299999999999998</v>
-      </c>
-      <c r="H37" s="10">
-        <v>0.53900000000000003</v>
-      </c>
-      <c r="I37" s="13">
-        <v>1.522</v>
-      </c>
-      <c r="J37" s="10">
-        <v>0.47899999999999998</v>
-      </c>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
-      <c r="O37" s="9">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="B38" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C38" s="10">
-        <v>0.504</v>
-      </c>
-      <c r="D38" s="10">
-        <v>0.51</v>
-      </c>
-      <c r="E38" s="10">
-        <v>0.48599999999999999</v>
-      </c>
-      <c r="F38" s="10">
-        <v>0.53200000000000003</v>
-      </c>
-      <c r="G38" s="10">
-        <v>0.54600000000000004</v>
-      </c>
-      <c r="H38" s="10">
-        <v>0.56699999999999995</v>
-      </c>
-      <c r="I38" s="14">
-        <v>1.2230000000000001</v>
-      </c>
-      <c r="J38" s="11">
-        <v>0.46800000000000003</v>
-      </c>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="9">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="B39" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C39" s="10">
-        <v>0.49399999999999999</v>
-      </c>
-      <c r="D39" s="15">
-        <v>0.94099999999999995</v>
-      </c>
-      <c r="E39" s="10">
-        <v>0.48399999999999999</v>
-      </c>
-      <c r="F39" s="10">
-        <v>0.52800000000000002</v>
-      </c>
-      <c r="G39" s="10">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="H39" s="25">
-        <v>1.123</v>
-      </c>
-      <c r="I39" s="15">
-        <v>0.97899999999999998</v>
-      </c>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="8"/>
-      <c r="O39" s="9">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="B40" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C40" s="10">
-        <v>0.50600000000000001</v>
-      </c>
-      <c r="D40" s="24">
-        <v>1.0680000000000001</v>
-      </c>
-      <c r="E40" s="10">
-        <v>0.49399999999999999</v>
-      </c>
-      <c r="F40" s="17">
-        <v>0.61699999999999999</v>
-      </c>
-      <c r="G40" s="10">
-        <v>0.52</v>
-      </c>
-      <c r="H40" s="17">
-        <v>0.57799999999999996</v>
-      </c>
-      <c r="I40" s="12">
-        <v>0.86499999999999999</v>
-      </c>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="8"/>
-      <c r="O40" s="9">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="B41" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C41" s="10">
-        <v>0.50800000000000001</v>
-      </c>
-      <c r="D41" s="10">
-        <v>0.55900000000000005</v>
-      </c>
-      <c r="E41" s="10">
-        <v>0.48499999999999999</v>
-      </c>
-      <c r="F41" s="17">
-        <v>0.628</v>
-      </c>
-      <c r="G41" s="18">
-        <v>1.335</v>
-      </c>
-      <c r="H41" s="10">
-        <v>0.52</v>
-      </c>
-      <c r="I41" s="16">
-        <v>0.76</v>
-      </c>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="8"/>
-      <c r="M41" s="8"/>
-      <c r="N41" s="8"/>
-      <c r="O41" s="9">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="B42" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C42" s="16">
-        <v>0.7</v>
-      </c>
-      <c r="D42" s="10">
-        <v>0.496</v>
-      </c>
-      <c r="E42" s="10">
-        <v>0.57499999999999996</v>
-      </c>
-      <c r="F42" s="10">
-        <v>0.54500000000000004</v>
-      </c>
-      <c r="G42" s="17">
-        <v>0.625</v>
-      </c>
-      <c r="H42" s="10">
-        <v>0.56699999999999995</v>
-      </c>
-      <c r="I42" s="17">
-        <v>0.61199999999999999</v>
-      </c>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="8"/>
-      <c r="N42" s="8"/>
-      <c r="O42" s="9">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="B43" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C43" s="10">
-        <v>0.55100000000000005</v>
-      </c>
-      <c r="D43" s="10">
-        <v>0.51100000000000001</v>
-      </c>
-      <c r="E43" s="10">
-        <v>0.55300000000000005</v>
-      </c>
-      <c r="F43" s="10">
-        <v>0.496</v>
-      </c>
-      <c r="G43" s="10">
-        <v>0.52500000000000002</v>
-      </c>
-      <c r="H43" s="10">
-        <v>0.56399999999999995</v>
-      </c>
-      <c r="I43" s="10">
-        <v>0.54</v>
-      </c>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="8"/>
-      <c r="O43" s="9">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="B44" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C44" s="16">
-        <v>0.70099999999999996</v>
-      </c>
-      <c r="D44" s="15">
-        <v>0.92400000000000004</v>
-      </c>
-      <c r="E44" s="15">
-        <v>0.96899999999999997</v>
-      </c>
-      <c r="F44" s="10">
-        <v>0.53700000000000003</v>
-      </c>
-      <c r="G44" s="10">
-        <v>0.52500000000000002</v>
-      </c>
-      <c r="H44" s="17">
-        <v>0.61399999999999999</v>
-      </c>
-      <c r="I44" s="10">
-        <v>0.49399999999999999</v>
-      </c>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
-      <c r="N44" s="8"/>
-      <c r="O44" s="9">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="B46" s="20" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B47" s="5"/>
-      <c r="C47" s="6">
+      <c r="O27" s="50"/>
+    </row>
+    <row r="28" spans="2:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="B28" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="D47" s="6">
-        <v>2</v>
-      </c>
-      <c r="E47" s="6">
-        <v>3</v>
-      </c>
-      <c r="F47" s="6">
-        <v>4</v>
-      </c>
-      <c r="G47" s="6">
-        <v>5</v>
-      </c>
-      <c r="H47" s="6">
-        <v>6</v>
-      </c>
-      <c r="I47" s="6">
-        <v>7</v>
-      </c>
-      <c r="J47" s="6">
-        <v>8</v>
-      </c>
-      <c r="K47" s="6">
-        <v>9</v>
-      </c>
-      <c r="L47" s="6">
-        <v>10</v>
-      </c>
-      <c r="M47" s="6">
-        <v>11</v>
-      </c>
-      <c r="N47" s="6">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="B48" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C48" s="10">
-        <f>C37-$J$38</f>
+      <c r="C28" s="53">
+        <f>C17-$J$18</f>
         <v>7.2000000000000008E-2</v>
       </c>
-      <c r="D48" s="10">
-        <f t="shared" ref="D48:I48" si="0">D37-$J$38</f>
+      <c r="D28" s="53">
+        <f t="shared" ref="D28:I28" si="0">D17-$J$18</f>
         <v>7.8000000000000014E-2</v>
       </c>
-      <c r="E48" s="10">
+      <c r="E28" s="53">
         <f t="shared" si="0"/>
         <v>2.7999999999999969E-2</v>
       </c>
-      <c r="F48" s="10">
+      <c r="F28" s="53">
         <f t="shared" si="0"/>
         <v>4.1999999999999982E-2</v>
       </c>
-      <c r="G48" s="10">
+      <c r="G28" s="53">
         <f t="shared" si="0"/>
         <v>0.25499999999999995</v>
       </c>
-      <c r="H48" s="10">
+      <c r="H28" s="53">
         <f t="shared" si="0"/>
         <v>7.1000000000000008E-2</v>
       </c>
-      <c r="I48" s="10">
+      <c r="I28" s="53">
         <f t="shared" si="0"/>
         <v>1.054</v>
       </c>
-      <c r="J48" s="10">
-        <f t="shared" ref="J48" si="1">J37-$J$38</f>
+      <c r="J28" s="53">
+        <f t="shared" ref="J28" si="1">J17-$J$18</f>
         <v>1.0999999999999954E-2</v>
       </c>
-      <c r="K48" s="8"/>
-      <c r="L48" s="8"/>
-      <c r="M48" s="8"/>
-      <c r="N48" s="8"/>
-      <c r="O48" s="9">
+      <c r="K28" s="54"/>
+      <c r="L28" s="54"/>
+      <c r="M28" s="54"/>
+      <c r="N28" s="54"/>
+      <c r="O28" s="55">
         <v>480</v>
       </c>
     </row>
-    <row r="49" spans="2:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="B49" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C49" s="10">
-        <f t="shared" ref="C49:I49" si="2">C38-$J$38</f>
+    <row r="29" spans="2:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="B29" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="53">
+        <f t="shared" ref="C29:I29" si="2">C18-$J$18</f>
         <v>3.5999999999999976E-2</v>
       </c>
-      <c r="D49" s="10">
+      <c r="D29" s="53">
         <f t="shared" si="2"/>
         <v>4.1999999999999982E-2</v>
       </c>
-      <c r="E49" s="10">
+      <c r="E29" s="53">
         <f t="shared" si="2"/>
         <v>1.799999999999996E-2</v>
       </c>
-      <c r="F49" s="10">
+      <c r="F29" s="53">
         <f t="shared" si="2"/>
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="G49" s="10">
+      <c r="G29" s="53">
         <f t="shared" si="2"/>
         <v>7.8000000000000014E-2</v>
       </c>
-      <c r="H49" s="10">
+      <c r="H29" s="53">
         <f t="shared" si="2"/>
         <v>9.8999999999999921E-2</v>
       </c>
-      <c r="I49" s="10">
+      <c r="I29" s="53">
         <f t="shared" si="2"/>
         <v>0.75500000000000012</v>
       </c>
-      <c r="J49" s="10">
-        <f t="shared" ref="J49" si="3">J38-$J$38</f>
+      <c r="J29" s="53">
+        <f t="shared" ref="J29" si="3">J18-$J$18</f>
         <v>0</v>
       </c>
-      <c r="K49" s="8"/>
-      <c r="L49" s="8"/>
-      <c r="M49" s="8"/>
-      <c r="N49" s="8"/>
-      <c r="O49" s="9">
+      <c r="K29" s="54"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="54"/>
+      <c r="N29" s="54"/>
+      <c r="O29" s="55">
         <v>480</v>
       </c>
     </row>
-    <row r="50" spans="2:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="B50" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C50" s="10">
-        <f t="shared" ref="C50:I50" si="4">C39-$J$38</f>
+    <row r="30" spans="2:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="B30" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="53">
+        <f t="shared" ref="C30:I30" si="4">C19-$J$18</f>
         <v>2.5999999999999968E-2</v>
       </c>
-      <c r="D50" s="10">
+      <c r="D30" s="53">
         <f t="shared" si="4"/>
         <v>0.47299999999999992</v>
       </c>
-      <c r="E50" s="10">
+      <c r="E30" s="53">
         <f t="shared" si="4"/>
         <v>1.5999999999999959E-2</v>
       </c>
-      <c r="F50" s="10">
+      <c r="F30" s="53">
         <f t="shared" si="4"/>
         <v>0.06</v>
       </c>
-      <c r="G50" s="10">
+      <c r="G30" s="53">
         <f t="shared" si="4"/>
         <v>0.10199999999999992</v>
       </c>
-      <c r="H50" s="10">
+      <c r="H30" s="53">
         <f t="shared" si="4"/>
         <v>0.65500000000000003</v>
       </c>
-      <c r="I50" s="10">
+      <c r="I30" s="53">
         <f t="shared" si="4"/>
         <v>0.5109999999999999</v>
       </c>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
-      <c r="L50" s="8"/>
-      <c r="M50" s="8"/>
-      <c r="N50" s="8"/>
-      <c r="O50" s="9">
+      <c r="J30" s="54"/>
+      <c r="K30" s="54"/>
+      <c r="L30" s="54"/>
+      <c r="M30" s="54"/>
+      <c r="N30" s="54"/>
+      <c r="O30" s="55">
         <v>480</v>
       </c>
     </row>
-    <row r="51" spans="2:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="B51" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C51" s="10">
-        <f t="shared" ref="C51:I51" si="5">C40-$J$38</f>
+    <row r="31" spans="2:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="B31" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="53">
+        <f t="shared" ref="C31:I31" si="5">C20-$J$18</f>
         <v>3.7999999999999978E-2</v>
       </c>
-      <c r="D51" s="10">
+      <c r="D31" s="53">
         <f t="shared" si="5"/>
         <v>0.60000000000000009</v>
       </c>
-      <c r="E51" s="10">
+      <c r="E31" s="53">
         <f t="shared" si="5"/>
         <v>2.5999999999999968E-2</v>
       </c>
-      <c r="F51" s="10">
+      <c r="F31" s="53">
         <f t="shared" si="5"/>
         <v>0.14899999999999997</v>
       </c>
-      <c r="G51" s="10">
+      <c r="G31" s="53">
         <f t="shared" si="5"/>
         <v>5.1999999999999991E-2</v>
       </c>
-      <c r="H51" s="10">
+      <c r="H31" s="53">
         <f t="shared" si="5"/>
         <v>0.10999999999999993</v>
       </c>
-      <c r="I51" s="10">
+      <c r="I31" s="53">
         <f t="shared" si="5"/>
         <v>0.39699999999999996</v>
       </c>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
-      <c r="L51" s="8"/>
-      <c r="M51" s="8"/>
-      <c r="N51" s="8"/>
-      <c r="O51" s="9">
+      <c r="J31" s="54"/>
+      <c r="K31" s="54"/>
+      <c r="L31" s="54"/>
+      <c r="M31" s="54"/>
+      <c r="N31" s="54"/>
+      <c r="O31" s="55">
         <v>480</v>
       </c>
     </row>
-    <row r="52" spans="2:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="B52" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C52" s="10">
-        <f t="shared" ref="C52:I52" si="6">C41-$J$38</f>
+    <row r="32" spans="2:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="B32" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="53">
+        <f t="shared" ref="C32:I32" si="6">C21-$J$18</f>
         <v>3.999999999999998E-2</v>
       </c>
-      <c r="D52" s="10">
+      <c r="D32" s="53">
         <f t="shared" si="6"/>
         <v>9.1000000000000025E-2</v>
       </c>
-      <c r="E52" s="10">
+      <c r="E32" s="53">
         <f t="shared" si="6"/>
         <v>1.699999999999996E-2</v>
       </c>
-      <c r="F52" s="10">
+      <c r="F32" s="53">
         <f t="shared" si="6"/>
         <v>0.15999999999999998</v>
       </c>
-      <c r="G52" s="10">
+      <c r="G32" s="53">
         <f t="shared" si="6"/>
         <v>0.86699999999999999</v>
       </c>
-      <c r="H52" s="10">
+      <c r="H32" s="53">
         <f t="shared" si="6"/>
         <v>5.1999999999999991E-2</v>
       </c>
-      <c r="I52" s="10">
+      <c r="I32" s="53">
         <f t="shared" si="6"/>
         <v>0.29199999999999998</v>
       </c>
-      <c r="J52" s="8"/>
-      <c r="K52" s="8"/>
-      <c r="L52" s="8"/>
-      <c r="M52" s="8"/>
-      <c r="N52" s="8"/>
-      <c r="O52" s="9">
+      <c r="J32" s="54"/>
+      <c r="K32" s="54"/>
+      <c r="L32" s="54"/>
+      <c r="M32" s="54"/>
+      <c r="N32" s="54"/>
+      <c r="O32" s="55">
         <v>480</v>
       </c>
     </row>
-    <row r="53" spans="2:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="B53" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C53" s="10">
-        <f t="shared" ref="C53:I53" si="7">C42-$J$38</f>
+    <row r="33" spans="2:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="B33" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="53">
+        <f t="shared" ref="C33:I33" si="7">C22-$J$18</f>
         <v>0.23199999999999993</v>
       </c>
-      <c r="D53" s="10">
+      <c r="D33" s="53">
         <f t="shared" si="7"/>
         <v>2.7999999999999969E-2</v>
       </c>
-      <c r="E53" s="10">
+      <c r="E33" s="53">
         <f t="shared" si="7"/>
         <v>0.10699999999999993</v>
       </c>
-      <c r="F53" s="10">
+      <c r="F33" s="53">
         <f t="shared" si="7"/>
         <v>7.7000000000000013E-2</v>
       </c>
-      <c r="G53" s="10">
+      <c r="G33" s="53">
         <f t="shared" si="7"/>
         <v>0.15699999999999997</v>
       </c>
-      <c r="H53" s="10">
+      <c r="H33" s="53">
         <f t="shared" si="7"/>
         <v>9.8999999999999921E-2</v>
       </c>
-      <c r="I53" s="10">
+      <c r="I33" s="53">
         <f t="shared" si="7"/>
         <v>0.14399999999999996</v>
       </c>
-      <c r="J53" s="8"/>
-      <c r="K53" s="8"/>
-      <c r="L53" s="8"/>
-      <c r="M53" s="8"/>
-      <c r="N53" s="8"/>
-      <c r="O53" s="9">
+      <c r="J33" s="54"/>
+      <c r="K33" s="54"/>
+      <c r="L33" s="54"/>
+      <c r="M33" s="54"/>
+      <c r="N33" s="54"/>
+      <c r="O33" s="55">
         <v>480</v>
       </c>
     </row>
-    <row r="54" spans="2:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="B54" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C54" s="10">
-        <f t="shared" ref="C54:I54" si="8">C43-$J$38</f>
+    <row r="34" spans="2:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="B34" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="53">
+        <f t="shared" ref="C34:I34" si="8">C23-$J$18</f>
         <v>8.3000000000000018E-2</v>
       </c>
-      <c r="D54" s="10">
+      <c r="D34" s="53">
         <f t="shared" si="8"/>
         <v>4.2999999999999983E-2</v>
       </c>
-      <c r="E54" s="10">
+      <c r="E34" s="53">
         <f t="shared" si="8"/>
         <v>8.500000000000002E-2</v>
       </c>
-      <c r="F54" s="10">
+      <c r="F34" s="53">
         <f t="shared" si="8"/>
         <v>2.7999999999999969E-2</v>
       </c>
-      <c r="G54" s="10">
+      <c r="G34" s="53">
         <f t="shared" si="8"/>
         <v>5.6999999999999995E-2</v>
       </c>
-      <c r="H54" s="10">
+      <c r="H34" s="53">
         <f t="shared" si="8"/>
         <v>9.5999999999999919E-2</v>
       </c>
-      <c r="I54" s="10">
+      <c r="I34" s="53">
         <f t="shared" si="8"/>
         <v>7.2000000000000008E-2</v>
       </c>
-      <c r="J54" s="8"/>
-      <c r="K54" s="8"/>
-      <c r="L54" s="8"/>
-      <c r="M54" s="8"/>
-      <c r="N54" s="8"/>
-      <c r="O54" s="9">
+      <c r="J34" s="54"/>
+      <c r="K34" s="54"/>
+      <c r="L34" s="54"/>
+      <c r="M34" s="54"/>
+      <c r="N34" s="54"/>
+      <c r="O34" s="55">
         <v>480</v>
       </c>
     </row>
-    <row r="55" spans="2:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="B55" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C55" s="10">
-        <f t="shared" ref="C55:I55" si="9">C44-$J$38</f>
+    <row r="35" spans="2:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="B35" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="53">
+        <f t="shared" ref="C35:I35" si="9">C24-$J$18</f>
         <v>0.23299999999999993</v>
       </c>
-      <c r="D55" s="10">
+      <c r="D35" s="53">
         <f t="shared" si="9"/>
         <v>0.45600000000000002</v>
       </c>
-      <c r="E55" s="10">
+      <c r="E35" s="53">
         <f t="shared" si="9"/>
         <v>0.50099999999999989</v>
       </c>
-      <c r="F55" s="10">
+      <c r="F35" s="53">
         <f t="shared" si="9"/>
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="G55" s="10">
+      <c r="G35" s="53">
         <f t="shared" si="9"/>
         <v>5.6999999999999995E-2</v>
       </c>
-      <c r="H55" s="10">
+      <c r="H35" s="53">
         <f t="shared" si="9"/>
         <v>0.14599999999999996</v>
       </c>
-      <c r="I55" s="10">
+      <c r="I35" s="53">
         <f t="shared" si="9"/>
         <v>2.5999999999999968E-2</v>
       </c>
-      <c r="J55" s="8"/>
-      <c r="K55" s="8"/>
-      <c r="L55" s="8"/>
-      <c r="M55" s="8"/>
-      <c r="N55" s="8"/>
-      <c r="O55" s="9">
+      <c r="J35" s="54"/>
+      <c r="K35" s="54"/>
+      <c r="L35" s="54"/>
+      <c r="M35" s="54"/>
+      <c r="N35" s="54"/>
+      <c r="O35" s="55">
         <v>480</v>
       </c>
     </row>
-    <row r="57" spans="2:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="B57" s="20" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="58" spans="2:15" ht="28" x14ac:dyDescent="0.15">
-      <c r="B58" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="C58" s="19" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B59">
+    <row r="37" spans="2:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="B37" s="18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" ht="28" x14ac:dyDescent="0.15">
+      <c r="B38" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B39">
         <v>2000</v>
       </c>
-      <c r="C59">
-        <f>I48</f>
+      <c r="C39">
+        <f>I28</f>
         <v>1.054</v>
       </c>
     </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B60">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B40">
         <v>1500</v>
       </c>
-      <c r="C60">
-        <f t="shared" ref="C60:C66" si="10">I49</f>
+      <c r="C40">
+        <f t="shared" ref="C40:C46" si="10">I29</f>
         <v>0.75500000000000012</v>
       </c>
     </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B61">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B41">
         <v>1000</v>
       </c>
-      <c r="C61">
+      <c r="C41">
         <f t="shared" si="10"/>
         <v>0.5109999999999999</v>
       </c>
     </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B62">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B42">
         <v>750</v>
       </c>
-      <c r="C62">
+      <c r="C42">
         <f t="shared" si="10"/>
         <v>0.39699999999999996</v>
       </c>
     </row>
-    <row r="63" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B63">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B43">
         <v>500</v>
       </c>
-      <c r="C63">
-        <f>I52</f>
+      <c r="C43">
+        <f>I32</f>
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="64" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B64">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B44">
         <v>250</v>
       </c>
-      <c r="C64">
+      <c r="C44">
         <f t="shared" si="10"/>
         <v>0.14399999999999996</v>
       </c>
     </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B65">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B45">
         <v>125</v>
       </c>
-      <c r="C65">
+      <c r="C45">
         <f t="shared" si="10"/>
         <v>7.2000000000000008E-2</v>
       </c>
     </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B66">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B46">
         <v>25</v>
       </c>
-      <c r="C66">
+      <c r="C46">
         <f t="shared" si="10"/>
         <v>2.5999999999999968E-2</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B67">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B47">
         <v>12.5</v>
       </c>
-      <c r="C67">
-        <f>J48</f>
+      <c r="C47">
+        <f>J28</f>
         <v>1.0999999999999954E-2</v>
       </c>
     </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B68">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B48">
         <v>0</v>
       </c>
-      <c r="C68">
-        <f>J49</f>
+      <c r="C48">
+        <f>J29</f>
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B71" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="C71">
-        <f>SLOPE(C59:C68,B59:B68)</f>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B51" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C51">
+        <f>SLOPE(C39:C48,B39:B48)</f>
         <v>5.1357052672472404E-4</v>
       </c>
     </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B72" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="C72">
-        <f>INTERCEPT(C59:C68,B59:B68)</f>
+    <row r="52" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B52" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C52">
+        <f>INTERCEPT(C39:C48,B39:B48)</f>
         <v>9.7121629058887771E-3</v>
       </c>
     </row>
-    <row r="75" spans="2:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="B75" s="20" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B76" s="5"/>
-      <c r="C76" s="6">
+    <row r="55" spans="2:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="B55" s="18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="56" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B56" s="3"/>
+      <c r="C56" s="4">
         <v>1</v>
       </c>
-      <c r="D76" s="6">
+      <c r="D56" s="4">
         <v>2</v>
       </c>
-      <c r="E76" s="6">
+      <c r="E56" s="4">
         <v>3</v>
       </c>
-      <c r="F76" s="6">
+      <c r="F56" s="4">
         <v>4</v>
       </c>
-      <c r="G76" s="6">
+      <c r="G56" s="4">
         <v>5</v>
       </c>
-      <c r="H76" s="6">
+      <c r="H56" s="4">
         <v>6</v>
       </c>
-      <c r="I76" s="6">
+      <c r="I56" s="4">
         <v>7</v>
       </c>
-      <c r="J76" s="6">
+      <c r="J56" s="4">
         <v>8</v>
       </c>
-      <c r="K76" s="6">
+      <c r="K56" s="4">
         <v>9</v>
       </c>
-      <c r="L76" s="6">
+      <c r="L56" s="4">
         <v>10</v>
       </c>
-      <c r="M76" s="6">
+      <c r="M56" s="4">
         <v>11</v>
       </c>
-      <c r="N76" s="6">
+      <c r="N56" s="4">
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="2:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="B77" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C77" s="23">
-        <f>C48/$C$71</f>
+    <row r="57" spans="2:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="B57" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" s="21">
+        <f>C28/$C$51</f>
         <v>140.19496106830195</v>
       </c>
-      <c r="D77" s="23">
-        <f t="shared" ref="D77:H77" si="11">D48/$C$71</f>
+      <c r="D57" s="21">
+        <f t="shared" ref="D57:H57" si="11">D28/$C$51</f>
         <v>151.87787449066045</v>
       </c>
-      <c r="E77" s="23">
+      <c r="E57" s="21">
         <f t="shared" si="11"/>
         <v>54.520262637672914</v>
       </c>
-      <c r="F77" s="23">
+      <c r="F57" s="21">
         <f t="shared" si="11"/>
         <v>81.780393956509428</v>
       </c>
-      <c r="G77" s="23">
+      <c r="G57" s="21">
         <f t="shared" si="11"/>
         <v>496.52382045023592</v>
       </c>
-      <c r="H77" s="23">
+      <c r="H57" s="21">
         <f t="shared" si="11"/>
         <v>138.2478088312422</v>
       </c>
-      <c r="I77" s="21"/>
-      <c r="J77" s="21"/>
-      <c r="K77" s="8"/>
-      <c r="L77" s="8"/>
-      <c r="M77" s="8"/>
-      <c r="N77" s="8"/>
-      <c r="O77" s="9">
+      <c r="I57" s="19"/>
+      <c r="J57" s="19"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="6"/>
+      <c r="N57" s="6"/>
+      <c r="O57" s="7">
         <v>480</v>
       </c>
     </row>
-    <row r="78" spans="2:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="B78" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C78" s="23">
-        <f t="shared" ref="C78:H78" si="12">C49/$C$71</f>
+    <row r="58" spans="2:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="B58" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" s="21">
+        <f t="shared" ref="C58:H58" si="12">C29/$C$51</f>
         <v>70.097480534150918</v>
       </c>
-      <c r="D78" s="23">
+      <c r="D58" s="21">
         <f t="shared" si="12"/>
         <v>81.780393956509428</v>
       </c>
-      <c r="E78" s="23">
+      <c r="E58" s="21">
         <f t="shared" si="12"/>
         <v>35.048740267075402</v>
       </c>
-      <c r="F78" s="23">
+      <c r="F58" s="21">
         <f t="shared" si="12"/>
         <v>124.61774317182393</v>
       </c>
-      <c r="G78" s="23">
+      <c r="G58" s="21">
         <f t="shared" si="12"/>
         <v>151.87787449066045</v>
       </c>
-      <c r="H78" s="23">
+      <c r="H58" s="21">
         <f t="shared" si="12"/>
         <v>192.768071468915</v>
       </c>
-      <c r="I78" s="21"/>
-      <c r="J78" s="21"/>
-      <c r="K78" s="8"/>
-      <c r="L78" s="8"/>
-      <c r="M78" s="8"/>
-      <c r="N78" s="8"/>
-      <c r="O78" s="9">
+      <c r="I58" s="19"/>
+      <c r="J58" s="19"/>
+      <c r="K58" s="6"/>
+      <c r="L58" s="6"/>
+      <c r="M58" s="6"/>
+      <c r="N58" s="6"/>
+      <c r="O58" s="7">
         <v>480</v>
       </c>
     </row>
-    <row r="79" spans="2:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="B79" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C79" s="23">
-        <f t="shared" ref="C79:H79" si="13">C50/$C$71</f>
+    <row r="59" spans="2:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="B59" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C59" s="21">
+        <f t="shared" ref="C59:H59" si="13">C30/$C$51</f>
         <v>50.625958163553413</v>
       </c>
-      <c r="D79" s="23">
+      <c r="D59" s="21">
         <f t="shared" si="13"/>
         <v>921.00300812926116</v>
       </c>
-      <c r="E79" s="23">
+      <c r="E59" s="21">
         <f t="shared" si="13"/>
         <v>31.154435792955905</v>
       </c>
-      <c r="F79" s="23">
+      <c r="F59" s="21">
         <f t="shared" si="13"/>
         <v>116.82913422358493</v>
       </c>
-      <c r="G79" s="23">
+      <c r="G59" s="21">
         <f t="shared" si="13"/>
         <v>198.60952818009426</v>
       </c>
-      <c r="H79" s="23">
+      <c r="H59" s="21">
         <f t="shared" si="13"/>
         <v>1275.3847152741357</v>
       </c>
-      <c r="I79" s="21"/>
-      <c r="J79" s="21"/>
-      <c r="K79" s="8"/>
-      <c r="L79" s="8"/>
-      <c r="M79" s="8"/>
-      <c r="N79" s="8"/>
-      <c r="O79" s="9">
+      <c r="I59" s="19"/>
+      <c r="J59" s="19"/>
+      <c r="K59" s="6"/>
+      <c r="L59" s="6"/>
+      <c r="M59" s="6"/>
+      <c r="N59" s="6"/>
+      <c r="O59" s="7">
         <v>480</v>
       </c>
     </row>
-    <row r="80" spans="2:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="B80" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C80" s="23">
-        <f t="shared" ref="C80:H80" si="14">C51/$C$71</f>
+    <row r="60" spans="2:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="B60" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C60" s="21">
+        <f t="shared" ref="C60:H60" si="14">C31/$C$51</f>
         <v>73.991785008270412</v>
       </c>
-      <c r="D80" s="23">
+      <c r="D60" s="21">
         <f t="shared" si="14"/>
         <v>1168.2913422358495</v>
       </c>
-      <c r="E80" s="23">
+      <c r="E60" s="21">
         <f t="shared" si="14"/>
         <v>50.625958163553413</v>
       </c>
-      <c r="F80" s="23">
+      <c r="F60" s="21">
         <f t="shared" si="14"/>
         <v>290.12568332190256</v>
       </c>
-      <c r="G80" s="23">
+      <c r="G60" s="21">
         <f t="shared" si="14"/>
         <v>101.25191632710693</v>
       </c>
-      <c r="H80" s="23">
+      <c r="H60" s="21">
         <f t="shared" si="14"/>
         <v>214.18674607657226</v>
       </c>
-      <c r="I80" s="21"/>
-      <c r="J80" s="21"/>
-      <c r="K80" s="8"/>
-      <c r="L80" s="8"/>
-      <c r="M80" s="8"/>
-      <c r="N80" s="8"/>
-      <c r="O80" s="9">
+      <c r="I60" s="19"/>
+      <c r="J60" s="19"/>
+      <c r="K60" s="6"/>
+      <c r="L60" s="6"/>
+      <c r="M60" s="6"/>
+      <c r="N60" s="6"/>
+      <c r="O60" s="7">
         <v>480</v>
       </c>
     </row>
-    <row r="81" spans="2:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="B81" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C81" s="23">
-        <f t="shared" ref="C81:H81" si="15">C52/$C$71</f>
+    <row r="61" spans="2:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="B61" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C61" s="21">
+        <f t="shared" ref="C61:H61" si="15">C32/$C$51</f>
         <v>77.88608948238992</v>
       </c>
-      <c r="D81" s="23">
+      <c r="D61" s="21">
         <f t="shared" si="15"/>
         <v>177.19085357243719</v>
       </c>
-      <c r="E81" s="23">
+      <c r="E61" s="21">
         <f t="shared" si="15"/>
         <v>33.101588030015655</v>
       </c>
-      <c r="F81" s="23">
+      <c r="F61" s="21">
         <f t="shared" si="15"/>
         <v>311.54435792955979</v>
       </c>
-      <c r="G81" s="23">
+      <c r="G61" s="21">
         <f t="shared" si="15"/>
         <v>1688.1809895308024</v>
       </c>
-      <c r="H81" s="23">
+      <c r="H61" s="21">
         <f t="shared" si="15"/>
         <v>101.25191632710693</v>
       </c>
-      <c r="I81" s="21"/>
-      <c r="J81" s="21"/>
-      <c r="K81" s="8"/>
-      <c r="L81" s="8"/>
-      <c r="M81" s="8"/>
-      <c r="N81" s="8"/>
-      <c r="O81" s="9">
+      <c r="I61" s="19"/>
+      <c r="J61" s="19"/>
+      <c r="K61" s="6"/>
+      <c r="L61" s="6"/>
+      <c r="M61" s="6"/>
+      <c r="N61" s="6"/>
+      <c r="O61" s="7">
         <v>480</v>
       </c>
     </row>
-    <row r="82" spans="2:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="B82" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C82" s="23">
-        <f t="shared" ref="C82:H82" si="16">C53/$C$71</f>
+    <row r="62" spans="2:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="B62" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C62" s="21">
+        <f t="shared" ref="C62:H62" si="16">C33/$C$51</f>
         <v>451.73931899786163</v>
       </c>
-      <c r="D82" s="23">
+      <c r="D62" s="21">
         <f t="shared" si="16"/>
         <v>54.520262637672914</v>
       </c>
-      <c r="E82" s="23">
+      <c r="E62" s="21">
         <f t="shared" si="16"/>
         <v>208.345289365393</v>
       </c>
-      <c r="F82" s="23">
+      <c r="F62" s="21">
         <f t="shared" si="16"/>
         <v>149.93072225360069</v>
       </c>
-      <c r="G82" s="23">
+      <c r="G62" s="21">
         <f t="shared" si="16"/>
         <v>305.70290121838053</v>
       </c>
-      <c r="H82" s="23">
+      <c r="H62" s="21">
         <f t="shared" si="16"/>
         <v>192.768071468915</v>
       </c>
-      <c r="I82" s="21"/>
-      <c r="J82" s="21"/>
-      <c r="K82" s="8"/>
-      <c r="L82" s="8"/>
-      <c r="M82" s="8"/>
-      <c r="N82" s="8"/>
-      <c r="O82" s="9">
+      <c r="I62" s="19"/>
+      <c r="J62" s="19"/>
+      <c r="K62" s="6"/>
+      <c r="L62" s="6"/>
+      <c r="M62" s="6"/>
+      <c r="N62" s="6"/>
+      <c r="O62" s="7">
         <v>480</v>
       </c>
     </row>
-    <row r="83" spans="2:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="B83" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C83" s="23">
-        <f t="shared" ref="C83:H83" si="17">C54/$C$71</f>
+    <row r="63" spans="2:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="B63" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C63" s="21">
+        <f t="shared" ref="C63:H63" si="17">C34/$C$51</f>
         <v>161.61363567595919</v>
       </c>
-      <c r="D83" s="23">
+      <c r="D63" s="21">
         <f t="shared" si="17"/>
         <v>83.727546193569168</v>
       </c>
-      <c r="E83" s="23">
+      <c r="E63" s="21">
         <f t="shared" si="17"/>
         <v>165.5079401500787</v>
       </c>
-      <c r="F83" s="23">
+      <c r="F63" s="21">
         <f t="shared" si="17"/>
         <v>54.520262637672914</v>
       </c>
-      <c r="G83" s="23">
+      <c r="G63" s="21">
         <f t="shared" si="17"/>
         <v>110.98767751240568</v>
       </c>
-      <c r="H83" s="23">
+      <c r="H63" s="21">
         <f t="shared" si="17"/>
         <v>186.92661475773573</v>
       </c>
-      <c r="I83" s="21"/>
-      <c r="J83" s="21"/>
-      <c r="K83" s="8"/>
-      <c r="L83" s="8"/>
-      <c r="M83" s="8"/>
-      <c r="N83" s="8"/>
-      <c r="O83" s="9">
+      <c r="I63" s="19"/>
+      <c r="J63" s="19"/>
+      <c r="K63" s="6"/>
+      <c r="L63" s="6"/>
+      <c r="M63" s="6"/>
+      <c r="N63" s="6"/>
+      <c r="O63" s="7">
         <v>480</v>
       </c>
     </row>
-    <row r="84" spans="2:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="B84" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C84" s="23">
-        <f t="shared" ref="C84:H84" si="18">C55/$C$71</f>
+    <row r="64" spans="2:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="B64" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C64" s="21">
+        <f t="shared" ref="C64:H64" si="18">C35/$C$51</f>
         <v>453.68647123492138</v>
       </c>
-      <c r="D84" s="23">
+      <c r="D64" s="21">
         <f t="shared" si="18"/>
         <v>887.90142009924557</v>
       </c>
-      <c r="E84" s="23">
+      <c r="E64" s="21">
         <f t="shared" si="18"/>
         <v>975.52327076693405</v>
       </c>
-      <c r="F84" s="23">
+      <c r="F64" s="21">
         <f t="shared" si="18"/>
         <v>134.35350435712269</v>
       </c>
-      <c r="G84" s="23">
+      <c r="G64" s="21">
         <f t="shared" si="18"/>
         <v>110.98767751240568</v>
       </c>
-      <c r="H84" s="23">
+      <c r="H64" s="21">
         <f t="shared" si="18"/>
         <v>284.28422661072329</v>
       </c>
-      <c r="I84" s="21"/>
-      <c r="J84" s="21"/>
-      <c r="K84" s="8"/>
-      <c r="L84" s="8"/>
-      <c r="M84" s="8"/>
-      <c r="N84" s="8"/>
-      <c r="O84" s="9">
+      <c r="I64" s="19"/>
+      <c r="J64" s="19"/>
+      <c r="K64" s="6"/>
+      <c r="L64" s="6"/>
+      <c r="M64" s="6"/>
+      <c r="N64" s="6"/>
+      <c r="O64" s="7">
         <v>480</v>
       </c>
     </row>
-    <row r="86" spans="2:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="B86" s="20" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="87" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B87" s="5"/>
-      <c r="C87" s="6">
+    <row r="66" spans="2:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="B66" s="18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B67" s="3"/>
+      <c r="C67" s="4">
         <v>1</v>
       </c>
-      <c r="D87" s="6">
+      <c r="D67" s="4">
         <v>2</v>
       </c>
-      <c r="E87" s="6">
+      <c r="E67" s="4">
         <v>3</v>
       </c>
-      <c r="F87" s="6">
+      <c r="F67" s="4">
         <v>4</v>
       </c>
-      <c r="G87" s="6">
+      <c r="G67" s="4">
         <v>5</v>
       </c>
-      <c r="H87" s="6">
+      <c r="H67" s="4">
         <v>6</v>
       </c>
-      <c r="I87" s="6">
+      <c r="I67" s="4">
         <v>7</v>
       </c>
-      <c r="J87" s="6">
+      <c r="J67" s="4">
         <v>8</v>
       </c>
-      <c r="K87" s="6">
+      <c r="K67" s="4">
         <v>9</v>
       </c>
-      <c r="L87" s="6">
+      <c r="L67" s="4">
         <v>10</v>
       </c>
-      <c r="M87" s="6">
+      <c r="M67" s="4">
         <v>11</v>
       </c>
-      <c r="N87" s="6">
+      <c r="N67" s="4">
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="2:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="B88" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C88" s="22">
-        <f>C77/1000</f>
+    <row r="68" spans="2:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="B68" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" s="20">
+        <f>C57/1000</f>
         <v>0.14019496106830195</v>
       </c>
-      <c r="D88" s="22">
-        <f t="shared" ref="D88:H88" si="19">D77/1000</f>
+      <c r="D68" s="20">
+        <f t="shared" ref="D68:H68" si="19">D57/1000</f>
         <v>0.15187787449066045</v>
       </c>
-      <c r="E88" s="22">
+      <c r="E68" s="20">
         <f t="shared" si="19"/>
         <v>5.4520262637672914E-2</v>
       </c>
-      <c r="F88" s="22">
+      <c r="F68" s="20">
         <f t="shared" si="19"/>
         <v>8.1780393956509434E-2</v>
       </c>
-      <c r="G88" s="22">
+      <c r="G68" s="20">
         <f t="shared" si="19"/>
         <v>0.49652382045023591</v>
       </c>
-      <c r="H88" s="22">
+      <c r="H68" s="20">
         <f t="shared" si="19"/>
         <v>0.13824780883124219</v>
       </c>
-      <c r="I88" s="21"/>
-      <c r="J88" s="21"/>
-      <c r="K88" s="8"/>
-      <c r="L88" s="8"/>
-      <c r="M88" s="8"/>
-      <c r="N88" s="8"/>
-      <c r="O88" s="9">
+      <c r="I68" s="19"/>
+      <c r="J68" s="19"/>
+      <c r="K68" s="6"/>
+      <c r="L68" s="6"/>
+      <c r="M68" s="6"/>
+      <c r="N68" s="6"/>
+      <c r="O68" s="7">
         <v>480</v>
       </c>
     </row>
-    <row r="89" spans="2:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="B89" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C89" s="22">
-        <f t="shared" ref="C89:H89" si="20">C78/1000</f>
+    <row r="69" spans="2:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="B69" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69" s="20">
+        <f t="shared" ref="C69:H69" si="20">C58/1000</f>
         <v>7.0097480534150922E-2</v>
       </c>
-      <c r="D89" s="22">
+      <c r="D69" s="20">
         <f t="shared" si="20"/>
         <v>8.1780393956509434E-2</v>
       </c>
-      <c r="E89" s="22">
+      <c r="E69" s="20">
         <f t="shared" si="20"/>
         <v>3.5048740267075405E-2</v>
       </c>
-      <c r="F89" s="22">
+      <c r="F69" s="20">
         <f t="shared" si="20"/>
         <v>0.12461774317182393</v>
       </c>
-      <c r="G89" s="22">
+      <c r="G69" s="20">
         <f t="shared" si="20"/>
         <v>0.15187787449066045</v>
       </c>
-      <c r="H89" s="22">
+      <c r="H69" s="20">
         <f t="shared" si="20"/>
         <v>0.192768071468915</v>
       </c>
-      <c r="I89" s="21"/>
-      <c r="J89" s="21"/>
-      <c r="K89" s="8"/>
-      <c r="L89" s="8"/>
-      <c r="M89" s="8"/>
-      <c r="N89" s="8"/>
-      <c r="O89" s="9">
+      <c r="I69" s="19"/>
+      <c r="J69" s="19"/>
+      <c r="K69" s="6"/>
+      <c r="L69" s="6"/>
+      <c r="M69" s="6"/>
+      <c r="N69" s="6"/>
+      <c r="O69" s="7">
         <v>480</v>
       </c>
     </row>
-    <row r="90" spans="2:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="B90" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C90" s="22">
-        <f t="shared" ref="C90:H90" si="21">C79/1000</f>
+    <row r="70" spans="2:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="B70" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C70" s="20">
+        <f t="shared" ref="C70:H70" si="21">C59/1000</f>
         <v>5.0625958163553413E-2</v>
       </c>
-      <c r="D90" s="22">
+      <c r="D70" s="20">
         <f t="shared" si="21"/>
         <v>0.92100300812926117</v>
       </c>
-      <c r="E90" s="22">
+      <c r="E70" s="20">
         <f t="shared" si="21"/>
         <v>3.1154435792955903E-2</v>
       </c>
-      <c r="F90" s="22">
+      <c r="F70" s="20">
         <f t="shared" si="21"/>
         <v>0.11682913422358493</v>
       </c>
-      <c r="G90" s="22">
+      <c r="G70" s="20">
         <f t="shared" si="21"/>
         <v>0.19860952818009425</v>
       </c>
-      <c r="H90" s="22">
+      <c r="H70" s="20">
         <f t="shared" si="21"/>
         <v>1.2753847152741358</v>
       </c>
-      <c r="I90" s="21"/>
-      <c r="J90" s="21"/>
-      <c r="K90" s="8"/>
-      <c r="L90" s="8"/>
-      <c r="M90" s="8"/>
-      <c r="N90" s="8"/>
-      <c r="O90" s="9">
+      <c r="I70" s="19"/>
+      <c r="J70" s="19"/>
+      <c r="K70" s="6"/>
+      <c r="L70" s="6"/>
+      <c r="M70" s="6"/>
+      <c r="N70" s="6"/>
+      <c r="O70" s="7">
         <v>480</v>
       </c>
     </row>
-    <row r="91" spans="2:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="B91" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C91" s="22">
-        <f t="shared" ref="C91:H91" si="22">C80/1000</f>
+    <row r="71" spans="2:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="B71" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C71" s="20">
+        <f t="shared" ref="C71:H71" si="22">C60/1000</f>
         <v>7.3991785008270416E-2</v>
       </c>
-      <c r="D91" s="22">
+      <c r="D71" s="20">
         <f t="shared" si="22"/>
         <v>1.1682913422358494</v>
       </c>
-      <c r="E91" s="22">
+      <c r="E71" s="20">
         <f t="shared" si="22"/>
         <v>5.0625958163553413E-2</v>
       </c>
-      <c r="F91" s="22">
+      <c r="F71" s="20">
         <f t="shared" si="22"/>
         <v>0.29012568332190258</v>
       </c>
-      <c r="G91" s="22">
+      <c r="G71" s="20">
         <f t="shared" si="22"/>
         <v>0.10125191632710692</v>
       </c>
-      <c r="H91" s="22">
+      <c r="H71" s="20">
         <f t="shared" si="22"/>
         <v>0.21418674607657226</v>
       </c>
-      <c r="I91" s="21"/>
-      <c r="J91" s="21"/>
-      <c r="K91" s="8"/>
-      <c r="L91" s="8"/>
-      <c r="M91" s="8"/>
-      <c r="N91" s="8"/>
-      <c r="O91" s="9">
+      <c r="I71" s="19"/>
+      <c r="J71" s="19"/>
+      <c r="K71" s="6"/>
+      <c r="L71" s="6"/>
+      <c r="M71" s="6"/>
+      <c r="N71" s="6"/>
+      <c r="O71" s="7">
         <v>480</v>
       </c>
     </row>
-    <row r="92" spans="2:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="B92" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C92" s="22">
-        <f t="shared" ref="C92:H92" si="23">C81/1000</f>
+    <row r="72" spans="2:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="B72" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C72" s="20">
+        <f t="shared" ref="C72:H72" si="23">C61/1000</f>
         <v>7.7886089482389925E-2</v>
       </c>
-      <c r="D92" s="22">
+      <c r="D72" s="20">
         <f t="shared" si="23"/>
         <v>0.17719085357243719</v>
       </c>
-      <c r="E92" s="22">
+      <c r="E72" s="20">
         <f t="shared" si="23"/>
         <v>3.3101588030015658E-2</v>
       </c>
-      <c r="F92" s="22">
+      <c r="F72" s="20">
         <f t="shared" si="23"/>
         <v>0.31154435792955981</v>
       </c>
-      <c r="G92" s="22">
+      <c r="G72" s="20">
         <f t="shared" si="23"/>
         <v>1.6881809895308024</v>
       </c>
-      <c r="H92" s="22">
+      <c r="H72" s="20">
         <f t="shared" si="23"/>
         <v>0.10125191632710692</v>
       </c>
-      <c r="I92" s="21"/>
-      <c r="J92" s="21"/>
-      <c r="K92" s="8"/>
-      <c r="L92" s="8"/>
-      <c r="M92" s="8"/>
-      <c r="N92" s="8"/>
-      <c r="O92" s="9">
+      <c r="I72" s="19"/>
+      <c r="J72" s="19"/>
+      <c r="K72" s="6"/>
+      <c r="L72" s="6"/>
+      <c r="M72" s="6"/>
+      <c r="N72" s="6"/>
+      <c r="O72" s="7">
         <v>480</v>
       </c>
     </row>
-    <row r="93" spans="2:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="B93" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C93" s="22">
-        <f t="shared" ref="C93:H93" si="24">C82/1000</f>
+    <row r="73" spans="2:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="B73" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C73" s="20">
+        <f t="shared" ref="C73:H73" si="24">C62/1000</f>
         <v>0.45173931899786163</v>
       </c>
-      <c r="D93" s="22">
+      <c r="D73" s="20">
         <f t="shared" si="24"/>
         <v>5.4520262637672914E-2</v>
       </c>
-      <c r="E93" s="22">
+      <c r="E73" s="20">
         <f t="shared" si="24"/>
         <v>0.20834528936539301</v>
       </c>
-      <c r="F93" s="22">
+      <c r="F73" s="20">
         <f t="shared" si="24"/>
         <v>0.14993072225360068</v>
       </c>
-      <c r="G93" s="22">
+      <c r="G73" s="20">
         <f t="shared" si="24"/>
         <v>0.30570290121838051</v>
       </c>
-      <c r="H93" s="22">
+      <c r="H73" s="20">
         <f t="shared" si="24"/>
         <v>0.192768071468915</v>
       </c>
-      <c r="I93" s="21"/>
-      <c r="J93" s="21"/>
-      <c r="K93" s="8"/>
-      <c r="L93" s="8"/>
-      <c r="M93" s="8"/>
-      <c r="N93" s="8"/>
-      <c r="O93" s="9">
+      <c r="I73" s="19"/>
+      <c r="J73" s="19"/>
+      <c r="K73" s="6"/>
+      <c r="L73" s="6"/>
+      <c r="M73" s="6"/>
+      <c r="N73" s="6"/>
+      <c r="O73" s="7">
         <v>480</v>
       </c>
     </row>
-    <row r="94" spans="2:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="B94" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C94" s="22">
-        <f t="shared" ref="C94:H94" si="25">C83/1000</f>
+    <row r="74" spans="2:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="B74" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C74" s="20">
+        <f t="shared" ref="C74:H74" si="25">C63/1000</f>
         <v>0.16161363567595918</v>
       </c>
-      <c r="D94" s="22">
+      <c r="D74" s="20">
         <f t="shared" si="25"/>
         <v>8.3727546193569174E-2</v>
       </c>
-      <c r="E94" s="22">
+      <c r="E74" s="20">
         <f t="shared" si="25"/>
         <v>0.16550794015007869</v>
       </c>
-      <c r="F94" s="22">
+      <c r="F74" s="20">
         <f t="shared" si="25"/>
         <v>5.4520262637672914E-2</v>
       </c>
-      <c r="G94" s="22">
+      <c r="G74" s="20">
         <f t="shared" si="25"/>
         <v>0.11098767751240568</v>
       </c>
-      <c r="H94" s="22">
+      <c r="H74" s="20">
         <f t="shared" si="25"/>
         <v>0.18692661475773573</v>
       </c>
-      <c r="I94" s="21"/>
-      <c r="J94" s="21"/>
-      <c r="K94" s="8"/>
-      <c r="L94" s="8"/>
-      <c r="M94" s="8"/>
-      <c r="N94" s="8"/>
-      <c r="O94" s="9">
+      <c r="I74" s="19"/>
+      <c r="J74" s="19"/>
+      <c r="K74" s="6"/>
+      <c r="L74" s="6"/>
+      <c r="M74" s="6"/>
+      <c r="N74" s="6"/>
+      <c r="O74" s="7">
         <v>480</v>
       </c>
     </row>
-    <row r="95" spans="2:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="B95" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C95" s="22">
-        <f t="shared" ref="C95:H95" si="26">C84/1000</f>
+    <row r="75" spans="2:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="B75" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C75" s="20">
+        <f t="shared" ref="C75:H75" si="26">C64/1000</f>
         <v>0.4536864712349214</v>
       </c>
-      <c r="D95" s="22">
+      <c r="D75" s="20">
         <f t="shared" si="26"/>
         <v>0.88790142009924555</v>
       </c>
-      <c r="E95" s="22">
+      <c r="E75" s="20">
         <f t="shared" si="26"/>
         <v>0.97552327076693401</v>
       </c>
-      <c r="F95" s="22">
+      <c r="F75" s="20">
         <f t="shared" si="26"/>
         <v>0.13435350435712268</v>
       </c>
-      <c r="G95" s="22">
+      <c r="G75" s="20">
         <f t="shared" si="26"/>
         <v>0.11098767751240568</v>
       </c>
-      <c r="H95" s="22">
+      <c r="H75" s="20">
         <f t="shared" si="26"/>
         <v>0.28428422661072328</v>
       </c>
-      <c r="I95" s="21"/>
-      <c r="J95" s="21"/>
-      <c r="K95" s="8"/>
-      <c r="L95" s="8"/>
-      <c r="M95" s="8"/>
-      <c r="N95" s="8"/>
-      <c r="O95" s="9">
+      <c r="I75" s="19"/>
+      <c r="J75" s="19"/>
+      <c r="K75" s="6"/>
+      <c r="L75" s="6"/>
+      <c r="M75" s="6"/>
+      <c r="N75" s="6"/>
+      <c r="O75" s="7">
         <v>480</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="C77:H84">
+  <conditionalFormatting sqref="C57:H64">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -5384,7 +5237,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C88:H95">
+  <conditionalFormatting sqref="C68:H75">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -5403,10 +5256,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6455AAF-76E8-1E48-BAA3-80900FC09106}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A2:O94"/>
+  <dimension ref="A3:O75"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5419,2006 +5272,1863 @@
     <col min="13" max="14" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    <row r="3" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" s="2"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B5" s="3"/>
+      <c r="C5" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+      <c r="D5" s="4">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+      <c r="E5" s="4">
+        <v>3</v>
+      </c>
+      <c r="F5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="G5" s="4">
         <v>5</v>
       </c>
-      <c r="J5" s="26" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+      <c r="H5" s="4">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
+      <c r="I5" s="4">
         <v>7</v>
       </c>
-      <c r="J6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+      <c r="J5" s="4">
         <v>8</v>
       </c>
-      <c r="B7" s="1">
-        <v>44959</v>
-      </c>
-      <c r="J7">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+      <c r="K5" s="4">
         <v>9</v>
       </c>
-      <c r="B8" s="2">
-        <v>0.53372685185185187</v>
-      </c>
-      <c r="J8">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
+      <c r="L5" s="4">
         <v>10</v>
       </c>
-      <c r="B9" t="s">
+      <c r="M5" s="4">
         <v>11</v>
       </c>
-      <c r="J9">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
+      <c r="N5" s="4">
         <v>12</v>
       </c>
-      <c r="B10">
-        <v>22041210</v>
-      </c>
-      <c r="J10">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
+    </row>
+    <row r="6" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="B6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="B7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="B8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="B9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B11" t="s">
+      <c r="K9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J11">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="J12">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="14" x14ac:dyDescent="0.15">
-      <c r="A13" s="3" t="s">
+      <c r="L9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="J13">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
+      <c r="M9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B14" t="s">
+      <c r="N9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J14">
+      <c r="O9" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="B10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="J15">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="N10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="B11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="B12" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="B13" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B17" s="3"/>
+      <c r="C17" s="4">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4">
+        <v>2</v>
+      </c>
+      <c r="E17" s="4">
+        <v>3</v>
+      </c>
+      <c r="F17" s="4">
+        <v>4</v>
+      </c>
+      <c r="G17" s="4">
+        <v>5</v>
+      </c>
+      <c r="H17" s="4">
+        <v>6</v>
+      </c>
+      <c r="I17" s="4">
+        <v>7</v>
+      </c>
+      <c r="J17" s="4">
+        <v>8</v>
+      </c>
+      <c r="K17" s="4">
+        <v>9</v>
+      </c>
+      <c r="L17" s="4">
+        <v>10</v>
+      </c>
+      <c r="M17" s="4">
+        <v>11</v>
+      </c>
+      <c r="N17" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="A18" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="11">
+        <v>1.659</v>
+      </c>
+      <c r="H18" s="8">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="I18" s="23">
+        <v>1.272</v>
+      </c>
+      <c r="J18" s="9">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="K18" s="8">
+        <v>0.63</v>
+      </c>
+      <c r="L18" s="8">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="M18" s="8">
+        <v>0.627</v>
+      </c>
+      <c r="N18" s="8">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="O18" s="7">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="B19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="23">
+        <v>1.367</v>
+      </c>
+      <c r="H19" s="9">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="I19" s="8">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="J19" s="15">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="K19" s="8">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="L19" s="14">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="M19" s="13">
+        <v>1.103</v>
+      </c>
+      <c r="N19" s="13">
+        <v>1.054</v>
+      </c>
+      <c r="O19" s="7">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="B20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B19" t="s">
-        <v>23</v>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="13">
+        <v>1.0940000000000001</v>
+      </c>
+      <c r="H20" s="6"/>
+      <c r="I20" s="23">
+        <v>1.2989999999999999</v>
+      </c>
+      <c r="J20" s="9">
+        <v>0.52</v>
+      </c>
+      <c r="K20" s="14">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="L20" s="15">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="M20" s="22">
+        <v>1.1850000000000001</v>
+      </c>
+      <c r="N20" s="8">
+        <v>0.55100000000000005</v>
+      </c>
+      <c r="O20" s="7">
+        <v>480</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="A21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="4"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B23" s="5"/>
-      <c r="C23" s="6">
+      <c r="B21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="10">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="H21" s="6"/>
+      <c r="I21" s="8">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="J21" s="8">
+        <v>0.54300000000000004</v>
+      </c>
+      <c r="K21" s="8">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="L21" s="14">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="M21" s="8">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="N21" s="13">
+        <v>1.07</v>
+      </c>
+      <c r="O21" s="7">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="B22" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="14">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="H22" s="6"/>
+      <c r="I22" s="9">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="J22" s="9">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="K22" s="23">
+        <v>1.347</v>
+      </c>
+      <c r="L22" s="13">
+        <v>1.1359999999999999</v>
+      </c>
+      <c r="M22" s="8">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="N22" s="8">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="O22" s="7">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="B23" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="15">
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="H23" s="6"/>
+      <c r="I23" s="8">
+        <v>0.56899999999999995</v>
+      </c>
+      <c r="J23" s="14">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="K23" s="23">
+        <v>1.3740000000000001</v>
+      </c>
+      <c r="L23" s="15">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="M23" s="8">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="N23" s="15">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="O23" s="7">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="B24" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="8">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="H24" s="6"/>
+      <c r="I24" s="8">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="J24" s="9">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="K24" s="22">
+        <v>1.2390000000000001</v>
+      </c>
+      <c r="L24" s="8">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="M24" s="8">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="N24" s="15">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="O24" s="7">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="B25" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="8">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="H25" s="6"/>
+      <c r="I25" s="8">
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="J25" s="8">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="K25" s="14">
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="L25" s="11">
+        <v>1.7549999999999999</v>
+      </c>
+      <c r="M25" s="8">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="N25" s="10">
+        <v>1.01</v>
+      </c>
+      <c r="O25" s="7">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="B27" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="50"/>
+      <c r="N27" s="50"/>
+      <c r="O27" s="50"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B28" s="51"/>
+      <c r="C28" s="52">
         <v>1</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D28" s="52">
         <v>2</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E28" s="52">
         <v>3</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F28" s="52">
         <v>4</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G28" s="52">
         <v>5</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H28" s="52">
         <v>6</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I28" s="52">
         <v>7</v>
       </c>
-      <c r="J23" s="6">
+      <c r="J28" s="52">
         <v>8</v>
       </c>
-      <c r="K23" s="6">
+      <c r="K28" s="52">
         <v>9</v>
       </c>
-      <c r="L23" s="6">
+      <c r="L28" s="52">
         <v>10</v>
       </c>
-      <c r="M23" s="6">
+      <c r="M28" s="52">
         <v>11</v>
       </c>
-      <c r="N23" s="6">
+      <c r="N28" s="52">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="B24" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="H24" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="M24" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="N24" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="O24" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="B25" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="H25" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="M25" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="N25" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="O25" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="B26" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="H26" s="8"/>
-      <c r="I26" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="M26" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="N26" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="O26" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="B27" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="H27" s="8"/>
-      <c r="I27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="M27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="N27" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="O27" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="B28" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="H28" s="8"/>
-      <c r="I28" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="M28" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="N28" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="O28" s="9" t="s">
-        <v>34</v>
-      </c>
+      <c r="O28" s="50"/>
     </row>
     <row r="29" spans="1:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="B29" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H29" s="8"/>
-      <c r="I29" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="M29" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="N29" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="O29" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="B30" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="H30" s="8"/>
-      <c r="I30" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M30" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="N30" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="O30" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="B31" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="H31" s="8"/>
-      <c r="I31" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="M31" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="N31" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="O31" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="A33" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B33" s="4"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
-        <v>93</v>
-      </c>
-      <c r="B34">
-        <v>25.2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B36" s="5"/>
-      <c r="C36" s="6">
+      <c r="B29" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="D36" s="6">
-        <v>2</v>
-      </c>
-      <c r="E36" s="6">
-        <v>3</v>
-      </c>
-      <c r="F36" s="6">
-        <v>4</v>
-      </c>
-      <c r="G36" s="6">
-        <v>5</v>
-      </c>
-      <c r="H36" s="6">
-        <v>6</v>
-      </c>
-      <c r="I36" s="6">
-        <v>7</v>
-      </c>
-      <c r="J36" s="6">
-        <v>8</v>
-      </c>
-      <c r="K36" s="6">
-        <v>9</v>
-      </c>
-      <c r="L36" s="6">
-        <v>10</v>
-      </c>
-      <c r="M36" s="6">
-        <v>11</v>
-      </c>
-      <c r="N36" s="6">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="B37" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="13">
-        <v>1.659</v>
-      </c>
-      <c r="H37" s="10">
-        <v>0.54900000000000004</v>
-      </c>
-      <c r="I37" s="25">
-        <v>1.272</v>
-      </c>
-      <c r="J37" s="11">
-        <v>0.53300000000000003</v>
-      </c>
-      <c r="K37" s="10">
-        <v>0.63</v>
-      </c>
-      <c r="L37" s="10">
-        <v>0.54500000000000004</v>
-      </c>
-      <c r="M37" s="10">
-        <v>0.627</v>
-      </c>
-      <c r="N37" s="10">
-        <v>0.57599999999999996</v>
-      </c>
-      <c r="O37" s="9">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="B38" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="25">
-        <v>1.367</v>
-      </c>
-      <c r="H38" s="11">
-        <v>0.53400000000000003</v>
-      </c>
-      <c r="I38" s="10">
-        <v>0.57499999999999996</v>
-      </c>
-      <c r="J38" s="17">
-        <v>0.70699999999999996</v>
-      </c>
-      <c r="K38" s="10">
-        <v>0.54200000000000004</v>
-      </c>
-      <c r="L38" s="16">
-        <v>0.79700000000000004</v>
-      </c>
-      <c r="M38" s="15">
-        <v>1.103</v>
-      </c>
-      <c r="N38" s="15">
-        <v>1.054</v>
-      </c>
-      <c r="O38" s="9">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="B39" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="15">
-        <v>1.0940000000000001</v>
-      </c>
-      <c r="H39" s="8"/>
-      <c r="I39" s="25">
-        <v>1.2989999999999999</v>
-      </c>
-      <c r="J39" s="11">
-        <v>0.52</v>
-      </c>
-      <c r="K39" s="16">
-        <v>0.78600000000000003</v>
-      </c>
-      <c r="L39" s="17">
-        <v>0.69499999999999995</v>
-      </c>
-      <c r="M39" s="24">
-        <v>1.1850000000000001</v>
-      </c>
-      <c r="N39" s="10">
-        <v>0.55100000000000005</v>
-      </c>
-      <c r="O39" s="9">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="B40" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="12">
-        <v>0.96699999999999997</v>
-      </c>
-      <c r="H40" s="8"/>
-      <c r="I40" s="10">
-        <v>0.57899999999999996</v>
-      </c>
-      <c r="J40" s="10">
-        <v>0.54300000000000004</v>
-      </c>
-      <c r="K40" s="10">
-        <v>0.61899999999999999</v>
-      </c>
-      <c r="L40" s="16">
-        <v>0.79500000000000004</v>
-      </c>
-      <c r="M40" s="10">
-        <v>0.55300000000000005</v>
-      </c>
-      <c r="N40" s="15">
-        <v>1.07</v>
-      </c>
-      <c r="O40" s="9">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="B41" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="16">
-        <v>0.85799999999999998</v>
-      </c>
-      <c r="H41" s="8"/>
-      <c r="I41" s="11">
-        <v>0.53500000000000003</v>
-      </c>
-      <c r="J41" s="11">
-        <v>0.53400000000000003</v>
-      </c>
-      <c r="K41" s="25">
-        <v>1.347</v>
-      </c>
-      <c r="L41" s="15">
-        <v>1.1359999999999999</v>
-      </c>
-      <c r="M41" s="10">
-        <v>0.57199999999999995</v>
-      </c>
-      <c r="N41" s="10">
-        <v>0.61499999999999999</v>
-      </c>
-      <c r="O41" s="9">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="B42" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="17">
-        <v>0.69099999999999995</v>
-      </c>
-      <c r="H42" s="8"/>
-      <c r="I42" s="10">
-        <v>0.56899999999999995</v>
-      </c>
-      <c r="J42" s="16">
-        <v>0.79200000000000004</v>
-      </c>
-      <c r="K42" s="25">
-        <v>1.3740000000000001</v>
-      </c>
-      <c r="L42" s="17">
-        <v>0.73499999999999999</v>
-      </c>
-      <c r="M42" s="10">
-        <v>0.56799999999999995</v>
-      </c>
-      <c r="N42" s="17">
-        <v>0.66700000000000004</v>
-      </c>
-      <c r="O42" s="9">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="B43" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="10">
-        <v>0.61199999999999999</v>
-      </c>
-      <c r="H43" s="8"/>
-      <c r="I43" s="10">
-        <v>0.54400000000000004</v>
-      </c>
-      <c r="J43" s="11">
-        <v>0.53300000000000003</v>
-      </c>
-      <c r="K43" s="24">
-        <v>1.2390000000000001</v>
-      </c>
-      <c r="L43" s="10">
-        <v>0.60699999999999998</v>
-      </c>
-      <c r="M43" s="10">
-        <v>0.55900000000000005</v>
-      </c>
-      <c r="N43" s="17">
-        <v>0.72799999999999998</v>
-      </c>
-      <c r="O43" s="9">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="B44" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="10">
-        <v>0.55700000000000005</v>
-      </c>
-      <c r="H44" s="8"/>
-      <c r="I44" s="10">
-        <v>0.56299999999999994</v>
-      </c>
-      <c r="J44" s="10">
-        <v>0.57199999999999995</v>
-      </c>
-      <c r="K44" s="16">
-        <v>0.78700000000000003</v>
-      </c>
-      <c r="L44" s="13">
-        <v>1.7549999999999999</v>
-      </c>
-      <c r="M44" s="10">
-        <v>0.59199999999999997</v>
-      </c>
-      <c r="N44" s="12">
-        <v>1.01</v>
-      </c>
-      <c r="O44" s="9">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="B46" s="20" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B47" s="5"/>
-      <c r="C47" s="6">
-        <v>1</v>
-      </c>
-      <c r="D47" s="6">
-        <v>2</v>
-      </c>
-      <c r="E47" s="6">
-        <v>3</v>
-      </c>
-      <c r="F47" s="6">
-        <v>4</v>
-      </c>
-      <c r="G47" s="6">
-        <v>5</v>
-      </c>
-      <c r="H47" s="6">
-        <v>6</v>
-      </c>
-      <c r="I47" s="6">
-        <v>7</v>
-      </c>
-      <c r="J47" s="6">
-        <v>8</v>
-      </c>
-      <c r="K47" s="6">
-        <v>9</v>
-      </c>
-      <c r="L47" s="6">
-        <v>10</v>
-      </c>
-      <c r="M47" s="6">
-        <v>11</v>
-      </c>
-      <c r="N47" s="6">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="B48" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="13">
-        <f>G37-$H$38</f>
+      <c r="C29" s="54"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="57">
+        <f>G18-$H$19</f>
         <v>1.125</v>
       </c>
-      <c r="H48" s="13">
-        <f t="shared" ref="H48:N49" si="0">H37-$H$38</f>
+      <c r="H29" s="57">
+        <f t="shared" ref="H29:N30" si="0">H18-$H$19</f>
         <v>1.5000000000000013E-2</v>
       </c>
-      <c r="I48" s="13">
+      <c r="I29" s="57">
         <f t="shared" si="0"/>
         <v>0.73799999999999999</v>
       </c>
-      <c r="J48" s="13">
+      <c r="J29" s="57">
         <f t="shared" si="0"/>
         <v>-1.0000000000000009E-3</v>
       </c>
-      <c r="K48" s="13">
+      <c r="K29" s="57">
         <f t="shared" si="0"/>
         <v>9.5999999999999974E-2</v>
       </c>
-      <c r="L48" s="13">
+      <c r="L29" s="57">
         <f t="shared" si="0"/>
         <v>1.100000000000001E-2</v>
       </c>
-      <c r="M48" s="13">
+      <c r="M29" s="57">
         <f t="shared" si="0"/>
         <v>9.2999999999999972E-2</v>
       </c>
-      <c r="N48" s="13">
+      <c r="N29" s="57">
         <f t="shared" si="0"/>
         <v>4.1999999999999926E-2</v>
       </c>
-      <c r="O48" s="9">
+      <c r="O29" s="55">
         <v>480</v>
       </c>
     </row>
-    <row r="49" spans="2:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="B49" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="13">
-        <f>G38-$H$38</f>
+    <row r="30" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="B30" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="57">
+        <f>G19-$H$19</f>
         <v>0.83299999999999996</v>
       </c>
-      <c r="H49" s="13">
+      <c r="H30" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I49" s="13">
+      <c r="I30" s="57">
         <f t="shared" si="0"/>
         <v>4.0999999999999925E-2</v>
       </c>
-      <c r="J49" s="13">
+      <c r="J30" s="57">
         <f t="shared" si="0"/>
         <v>0.17299999999999993</v>
       </c>
-      <c r="K49" s="13">
+      <c r="K30" s="57">
         <f t="shared" si="0"/>
         <v>8.0000000000000071E-3</v>
       </c>
-      <c r="L49" s="13">
+      <c r="L30" s="57">
         <f t="shared" si="0"/>
         <v>0.26300000000000001</v>
       </c>
-      <c r="M49" s="13">
+      <c r="M30" s="57">
         <f t="shared" si="0"/>
         <v>0.56899999999999995</v>
       </c>
-      <c r="N49" s="13">
+      <c r="N30" s="57">
         <f t="shared" si="0"/>
         <v>0.52</v>
       </c>
-      <c r="O49" s="9">
+      <c r="O30" s="55">
         <v>480</v>
       </c>
     </row>
-    <row r="50" spans="2:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="B50" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="13">
-        <f t="shared" ref="G50:G55" si="1">G39-$H$38</f>
+    <row r="31" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="B31" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="54"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="57">
+        <f t="shared" ref="G31:G36" si="1">G20-$H$19</f>
         <v>0.56000000000000005</v>
       </c>
-      <c r="H50" s="8"/>
-      <c r="I50" s="13">
-        <f t="shared" ref="I50:N50" si="2">I39-$H$38</f>
+      <c r="H31" s="54"/>
+      <c r="I31" s="57">
+        <f t="shared" ref="I31:N31" si="2">I20-$H$19</f>
         <v>0.7649999999999999</v>
       </c>
-      <c r="J50" s="13">
+      <c r="J31" s="57">
         <f t="shared" si="2"/>
         <v>-1.4000000000000012E-2</v>
       </c>
-      <c r="K50" s="13">
+      <c r="K31" s="57">
         <f t="shared" si="2"/>
         <v>0.252</v>
       </c>
-      <c r="L50" s="13">
+      <c r="L31" s="57">
         <f t="shared" si="2"/>
         <v>0.16099999999999992</v>
       </c>
-      <c r="M50" s="13">
+      <c r="M31" s="57">
         <f t="shared" si="2"/>
         <v>0.65100000000000002</v>
       </c>
-      <c r="N50" s="13">
+      <c r="N31" s="57">
         <f t="shared" si="2"/>
         <v>1.7000000000000015E-2</v>
       </c>
-      <c r="O50" s="9">
+      <c r="O31" s="55">
         <v>480</v>
       </c>
     </row>
-    <row r="51" spans="2:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="B51" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="13">
+    <row r="32" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="B32" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="54"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="57">
         <f t="shared" si="1"/>
         <v>0.43299999999999994</v>
       </c>
-      <c r="H51" s="8"/>
-      <c r="I51" s="13">
-        <f t="shared" ref="I51:N51" si="3">I40-$H$38</f>
+      <c r="H32" s="54"/>
+      <c r="I32" s="57">
+        <f t="shared" ref="I32:N32" si="3">I21-$H$19</f>
         <v>4.4999999999999929E-2</v>
       </c>
-      <c r="J51" s="13">
+      <c r="J32" s="57">
         <f t="shared" si="3"/>
         <v>9.000000000000008E-3</v>
       </c>
-      <c r="K51" s="13">
+      <c r="K32" s="57">
         <f t="shared" si="3"/>
         <v>8.4999999999999964E-2</v>
       </c>
-      <c r="L51" s="13">
+      <c r="L32" s="57">
         <f t="shared" si="3"/>
         <v>0.26100000000000001</v>
       </c>
-      <c r="M51" s="13">
+      <c r="M32" s="57">
         <f t="shared" si="3"/>
         <v>1.9000000000000017E-2</v>
       </c>
-      <c r="N51" s="13">
+      <c r="N32" s="57">
         <f t="shared" si="3"/>
         <v>0.53600000000000003</v>
       </c>
-      <c r="O51" s="9">
+      <c r="O32" s="55">
         <v>480</v>
       </c>
     </row>
-    <row r="52" spans="2:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="B52" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="13">
+    <row r="33" spans="2:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="B33" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="54"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="57">
         <f t="shared" si="1"/>
         <v>0.32399999999999995</v>
       </c>
-      <c r="H52" s="8"/>
-      <c r="I52" s="13">
-        <f t="shared" ref="I52:N52" si="4">I41-$H$38</f>
+      <c r="H33" s="54"/>
+      <c r="I33" s="57">
+        <f t="shared" ref="I33:N33" si="4">I22-$H$19</f>
         <v>1.0000000000000009E-3</v>
       </c>
-      <c r="J52" s="13">
+      <c r="J33" s="57">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K52" s="13">
+      <c r="K33" s="57">
         <f t="shared" si="4"/>
         <v>0.81299999999999994</v>
       </c>
-      <c r="L52" s="13">
+      <c r="L33" s="57">
         <f t="shared" si="4"/>
         <v>0.60199999999999987</v>
       </c>
-      <c r="M52" s="13">
+      <c r="M33" s="57">
         <f t="shared" si="4"/>
         <v>3.7999999999999923E-2</v>
       </c>
-      <c r="N52" s="13">
+      <c r="N33" s="57">
         <f t="shared" si="4"/>
         <v>8.0999999999999961E-2</v>
       </c>
-      <c r="O52" s="9">
+      <c r="O33" s="55">
         <v>480</v>
       </c>
     </row>
-    <row r="53" spans="2:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="B53" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="13">
+    <row r="34" spans="2:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="B34" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="54"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="54"/>
+      <c r="G34" s="57">
         <f t="shared" si="1"/>
         <v>0.15699999999999992</v>
       </c>
-      <c r="H53" s="8"/>
-      <c r="I53" s="13">
-        <f t="shared" ref="I53:N53" si="5">I42-$H$38</f>
+      <c r="H34" s="54"/>
+      <c r="I34" s="57">
+        <f t="shared" ref="I34:N34" si="5">I23-$H$19</f>
         <v>3.499999999999992E-2</v>
       </c>
-      <c r="J53" s="13">
+      <c r="J34" s="57">
         <f t="shared" si="5"/>
         <v>0.25800000000000001</v>
       </c>
-      <c r="K53" s="13">
+      <c r="K34" s="57">
         <f t="shared" si="5"/>
         <v>0.84000000000000008</v>
       </c>
-      <c r="L53" s="13">
+      <c r="L34" s="57">
         <f t="shared" si="5"/>
         <v>0.20099999999999996</v>
       </c>
-      <c r="M53" s="13">
+      <c r="M34" s="57">
         <f t="shared" si="5"/>
         <v>3.3999999999999919E-2</v>
       </c>
-      <c r="N53" s="13">
+      <c r="N34" s="57">
         <f t="shared" si="5"/>
         <v>0.13300000000000001</v>
       </c>
-      <c r="O53" s="9">
+      <c r="O34" s="55">
         <v>480</v>
       </c>
     </row>
-    <row r="54" spans="2:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="B54" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="13">
+    <row r="35" spans="2:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="B35" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="54"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="54"/>
+      <c r="G35" s="57">
         <f t="shared" si="1"/>
         <v>7.7999999999999958E-2</v>
       </c>
-      <c r="H54" s="8"/>
-      <c r="I54" s="13">
-        <f t="shared" ref="I54:N54" si="6">I43-$H$38</f>
+      <c r="H35" s="54"/>
+      <c r="I35" s="57">
+        <f t="shared" ref="I35:N35" si="6">I24-$H$19</f>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="J54" s="13">
+      <c r="J35" s="57">
         <f t="shared" si="6"/>
         <v>-1.0000000000000009E-3</v>
       </c>
-      <c r="K54" s="13">
+      <c r="K35" s="57">
         <f t="shared" si="6"/>
         <v>0.70500000000000007</v>
       </c>
-      <c r="L54" s="13">
+      <c r="L35" s="57">
         <f t="shared" si="6"/>
         <v>7.2999999999999954E-2</v>
       </c>
-      <c r="M54" s="13">
+      <c r="M35" s="57">
         <f t="shared" si="6"/>
         <v>2.5000000000000022E-2</v>
       </c>
-      <c r="N54" s="13">
+      <c r="N35" s="57">
         <f t="shared" si="6"/>
         <v>0.19399999999999995</v>
       </c>
-      <c r="O54" s="9">
+      <c r="O35" s="55">
         <v>480</v>
       </c>
     </row>
-    <row r="55" spans="2:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="B55" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="13">
+    <row r="36" spans="2:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="B36" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="54"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="54"/>
+      <c r="G36" s="57">
         <f t="shared" si="1"/>
         <v>2.300000000000002E-2</v>
       </c>
-      <c r="H55" s="8"/>
-      <c r="I55" s="13">
-        <f t="shared" ref="I55:N55" si="7">I44-$H$38</f>
+      <c r="H36" s="54"/>
+      <c r="I36" s="57">
+        <f t="shared" ref="I36:N36" si="7">I25-$H$19</f>
         <v>2.8999999999999915E-2</v>
       </c>
-      <c r="J55" s="13">
+      <c r="J36" s="57">
         <f t="shared" si="7"/>
         <v>3.7999999999999923E-2</v>
       </c>
-      <c r="K55" s="13">
+      <c r="K36" s="57">
         <f t="shared" si="7"/>
         <v>0.253</v>
       </c>
-      <c r="L55" s="13">
+      <c r="L36" s="57">
         <f t="shared" si="7"/>
         <v>1.2209999999999999</v>
       </c>
-      <c r="M55" s="13">
+      <c r="M36" s="57">
         <f t="shared" si="7"/>
         <v>5.799999999999994E-2</v>
       </c>
-      <c r="N55" s="13">
+      <c r="N36" s="57">
         <f t="shared" si="7"/>
         <v>0.47599999999999998</v>
       </c>
-      <c r="O55" s="9">
+      <c r="O36" s="55">
         <v>480</v>
       </c>
     </row>
-    <row r="57" spans="2:15" ht="28" x14ac:dyDescent="0.15">
-      <c r="B57" s="20" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="58" spans="2:15" ht="42" x14ac:dyDescent="0.15">
-      <c r="B58" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="C58" s="19" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B59">
+    <row r="38" spans="2:15" ht="28" x14ac:dyDescent="0.15">
+      <c r="B38" s="18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" ht="42" x14ac:dyDescent="0.15">
+      <c r="B39" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B40">
         <v>2000</v>
       </c>
-      <c r="C59">
-        <f>G48</f>
+      <c r="C40">
+        <f>G29</f>
         <v>1.125</v>
       </c>
     </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B60">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B41">
         <v>1500</v>
       </c>
-      <c r="C60">
-        <f t="shared" ref="C60:C66" si="8">G49</f>
+      <c r="C41">
+        <f t="shared" ref="C41:C47" si="8">G30</f>
         <v>0.83299999999999996</v>
       </c>
     </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B61">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B42">
         <v>1000</v>
       </c>
-      <c r="C61">
+      <c r="C42">
         <f t="shared" si="8"/>
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B62">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B43">
         <v>750</v>
       </c>
-      <c r="C62">
+      <c r="C43">
         <f t="shared" si="8"/>
         <v>0.43299999999999994</v>
       </c>
     </row>
-    <row r="63" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B63">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B44">
         <v>500</v>
       </c>
-      <c r="C63">
+      <c r="C44">
         <f t="shared" si="8"/>
         <v>0.32399999999999995</v>
       </c>
     </row>
-    <row r="64" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B64">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B45">
         <v>250</v>
       </c>
-      <c r="C64">
+      <c r="C45">
         <f t="shared" si="8"/>
         <v>0.15699999999999992</v>
       </c>
     </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B65">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B46">
         <v>125</v>
       </c>
-      <c r="C65">
+      <c r="C46">
         <f t="shared" si="8"/>
         <v>7.7999999999999958E-2</v>
       </c>
     </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B66">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B47">
         <v>25</v>
       </c>
-      <c r="C66">
+      <c r="C47">
         <f t="shared" si="8"/>
         <v>2.300000000000002E-2</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B67">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B48">
         <v>12.5</v>
       </c>
-      <c r="C67">
-        <f>H48</f>
+      <c r="C48">
+        <f>H29</f>
         <v>1.5000000000000013E-2</v>
       </c>
     </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B68">
+    <row r="49" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B49">
         <v>0</v>
       </c>
-      <c r="C68">
-        <f>H49</f>
+      <c r="C49">
+        <f>H30</f>
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B70" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="C70">
-        <f>SLOPE(C59:C68,B59:B68)</f>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B51" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C51">
+        <f>SLOPE(C40:C49,B40:B49)</f>
         <v>5.5471627799900003E-4</v>
       </c>
     </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B71" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="C71">
-        <f>INTERCEPT(C59:C68,B59:B68)</f>
+    <row r="52" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B52" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C52">
+        <f>INTERCEPT(C40:C49,B40:B49)</f>
         <v>1.2956093683116177E-2</v>
       </c>
-      <c r="D71" s="19"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B74" s="19" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B75" s="5"/>
-      <c r="C75" s="6">
+      <c r="D52" s="17"/>
+    </row>
+    <row r="55" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B55" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="56" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B56" s="3"/>
+      <c r="C56" s="4">
         <v>1</v>
       </c>
-      <c r="D75" s="6">
+      <c r="D56" s="4">
         <v>2</v>
       </c>
-      <c r="E75" s="6">
+      <c r="E56" s="4">
         <v>3</v>
       </c>
-      <c r="F75" s="6">
+      <c r="F56" s="4">
         <v>4</v>
       </c>
-      <c r="G75" s="6">
+      <c r="G56" s="4">
         <v>5</v>
       </c>
-      <c r="H75" s="6">
+      <c r="H56" s="4">
         <v>6</v>
       </c>
-      <c r="I75" s="6">
+      <c r="I56" s="4">
         <v>7</v>
       </c>
-      <c r="J75" s="6">
+      <c r="J56" s="4">
         <v>8</v>
       </c>
-      <c r="K75" s="6">
+      <c r="K56" s="4">
         <v>9</v>
       </c>
-      <c r="L75" s="6">
+      <c r="L56" s="4">
         <v>10</v>
       </c>
-      <c r="M75" s="6">
+      <c r="M56" s="4">
         <v>11</v>
       </c>
-      <c r="N75" s="6">
+      <c r="N56" s="4">
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="2:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="B76" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C76" s="8"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="8"/>
-      <c r="F76" s="8"/>
-      <c r="G76" s="21"/>
-      <c r="H76" s="21"/>
-      <c r="I76" s="28">
-        <f>I48/$C$70</f>
+    <row r="57" spans="2:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="B57" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="19"/>
+      <c r="I57" s="26">
+        <f>I29/$C$51</f>
         <v>1330.4098496300669</v>
       </c>
-      <c r="J76" s="28">
-        <f t="shared" ref="J76:N76" si="9">J48/$C$70</f>
+      <c r="J57" s="26">
+        <f t="shared" ref="J57:N57" si="9">J29/$C$51</f>
         <v>-1.802723373482477</v>
       </c>
-      <c r="K76" s="28">
+      <c r="K57" s="26">
         <f t="shared" si="9"/>
         <v>173.06144385431759</v>
       </c>
-      <c r="L76" s="28">
+      <c r="L57" s="26">
         <f t="shared" si="9"/>
         <v>19.829957108307248</v>
       </c>
-      <c r="M76" s="28">
+      <c r="M57" s="26">
         <f t="shared" si="9"/>
         <v>167.65327373387015</v>
       </c>
-      <c r="N76" s="28">
+      <c r="N57" s="26">
         <f t="shared" si="9"/>
         <v>75.714381686263835</v>
       </c>
-      <c r="O76" s="9">
+      <c r="O57" s="7">
         <v>480</v>
       </c>
     </row>
-    <row r="77" spans="2:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="B77" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C77" s="8"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="8"/>
-      <c r="F77" s="8"/>
-      <c r="G77" s="21"/>
-      <c r="H77" s="21"/>
-      <c r="I77" s="28">
-        <f t="shared" ref="I77:N77" si="10">I49/$C$70</f>
+    <row r="58" spans="2:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="B58" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="19"/>
+      <c r="H58" s="19"/>
+      <c r="I58" s="26">
+        <f t="shared" ref="I58:N58" si="10">I30/$C$51</f>
         <v>73.911658312781356</v>
       </c>
-      <c r="J77" s="28">
+      <c r="J58" s="26">
         <f t="shared" si="10"/>
         <v>311.87114361246813</v>
       </c>
-      <c r="K77" s="28">
+      <c r="K58" s="26">
         <f t="shared" si="10"/>
         <v>14.421786987859816</v>
       </c>
-      <c r="L77" s="28">
+      <c r="L58" s="26">
         <f t="shared" si="10"/>
         <v>474.11624722589107</v>
       </c>
-      <c r="M77" s="28">
+      <c r="M58" s="26">
         <f t="shared" si="10"/>
         <v>1025.7495995115285</v>
       </c>
-      <c r="N77" s="28">
+      <c r="N58" s="26">
         <f t="shared" si="10"/>
         <v>937.41615421088727</v>
       </c>
-      <c r="O77" s="9">
+      <c r="O58" s="7">
         <v>480</v>
       </c>
     </row>
-    <row r="78" spans="2:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="B78" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C78" s="8"/>
-      <c r="D78" s="8"/>
-      <c r="E78" s="8"/>
-      <c r="F78" s="8"/>
-      <c r="G78" s="21"/>
-      <c r="H78" s="21"/>
-      <c r="I78" s="28">
-        <f t="shared" ref="I78:N78" si="11">I50/$C$70</f>
+    <row r="59" spans="2:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="B59" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="19"/>
+      <c r="I59" s="26">
+        <f t="shared" ref="I59:N59" si="11">I31/$C$51</f>
         <v>1379.0833807140934</v>
       </c>
-      <c r="J78" s="28">
+      <c r="J59" s="26">
         <f t="shared" si="11"/>
         <v>-25.238127228754678</v>
       </c>
-      <c r="K78" s="28">
+      <c r="K59" s="26">
         <f t="shared" si="11"/>
         <v>454.2862901175838</v>
       </c>
-      <c r="L78" s="28">
+      <c r="L59" s="26">
         <f t="shared" si="11"/>
         <v>290.23846313067838</v>
       </c>
-      <c r="M78" s="28">
+      <c r="M59" s="26">
         <f t="shared" si="11"/>
         <v>1173.5729161370916</v>
       </c>
-      <c r="N78" s="28">
+      <c r="N59" s="26">
         <f t="shared" si="11"/>
         <v>30.646297349202108</v>
       </c>
-      <c r="O78" s="9">
+      <c r="O59" s="7">
         <v>480</v>
       </c>
     </row>
-    <row r="79" spans="2:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="B79" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="8"/>
-      <c r="F79" s="8"/>
-      <c r="G79" s="21"/>
-      <c r="H79" s="21"/>
-      <c r="I79" s="28">
-        <f t="shared" ref="I79:N79" si="12">I51/$C$70</f>
+    <row r="60" spans="2:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="B60" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="19"/>
+      <c r="H60" s="19"/>
+      <c r="I60" s="26">
+        <f t="shared" ref="I60:N60" si="12">I32/$C$51</f>
         <v>81.122551806711272</v>
       </c>
-      <c r="J79" s="28">
+      <c r="J60" s="26">
         <f t="shared" si="12"/>
         <v>16.224510361342293</v>
       </c>
-      <c r="K79" s="28">
+      <c r="K60" s="26">
         <f t="shared" si="12"/>
         <v>153.23148674601035</v>
       </c>
-      <c r="L79" s="28">
+      <c r="L60" s="26">
         <f t="shared" si="12"/>
         <v>470.51080047892611</v>
       </c>
-      <c r="M79" s="28">
+      <c r="M60" s="26">
         <f t="shared" si="12"/>
         <v>34.251744096167066</v>
       </c>
-      <c r="N79" s="28">
+      <c r="N60" s="26">
         <f t="shared" si="12"/>
         <v>966.25972818660694</v>
       </c>
-      <c r="O79" s="9">
+      <c r="O60" s="7">
         <v>480</v>
       </c>
     </row>
-    <row r="80" spans="2:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="B80" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C80" s="8"/>
-      <c r="D80" s="8"/>
-      <c r="E80" s="8"/>
-      <c r="F80" s="8"/>
-      <c r="G80" s="21"/>
-      <c r="H80" s="21"/>
-      <c r="I80" s="28">
-        <f t="shared" ref="I80:N80" si="13">I52/$C$70</f>
+    <row r="61" spans="2:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="B61" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="19"/>
+      <c r="H61" s="19"/>
+      <c r="I61" s="26">
+        <f t="shared" ref="I61:N61" si="13">I33/$C$51</f>
         <v>1.802723373482477</v>
       </c>
-      <c r="J80" s="28">
+      <c r="J61" s="26">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="K80" s="28">
+      <c r="K61" s="26">
         <f t="shared" si="13"/>
         <v>1465.6141026412524</v>
       </c>
-      <c r="L80" s="28">
+      <c r="L61" s="26">
         <f t="shared" si="13"/>
         <v>1085.23947083645</v>
       </c>
-      <c r="M80" s="28">
+      <c r="M61" s="26">
         <f t="shared" si="13"/>
         <v>68.503488192333933</v>
       </c>
-      <c r="N80" s="28">
+      <c r="N61" s="26">
         <f t="shared" si="13"/>
         <v>146.02059325208043</v>
       </c>
-      <c r="O80" s="9">
+      <c r="O61" s="7">
         <v>480</v>
       </c>
     </row>
-    <row r="81" spans="2:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="B81" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C81" s="8"/>
-      <c r="D81" s="8"/>
-      <c r="E81" s="8"/>
-      <c r="F81" s="8"/>
-      <c r="G81" s="21"/>
-      <c r="H81" s="21"/>
-      <c r="I81" s="28">
-        <f t="shared" ref="I81:N81" si="14">I53/$C$70</f>
+    <row r="62" spans="2:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="B62" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="19"/>
+      <c r="H62" s="19"/>
+      <c r="I62" s="26">
+        <f t="shared" ref="I62:N62" si="14">I34/$C$51</f>
         <v>63.095318071886496</v>
       </c>
-      <c r="J81" s="28">
+      <c r="J62" s="26">
         <f t="shared" si="14"/>
         <v>465.10263035847868</v>
       </c>
-      <c r="K81" s="28">
+      <c r="K62" s="26">
         <f t="shared" si="14"/>
         <v>1514.2876337252794</v>
       </c>
-      <c r="L81" s="28">
+      <c r="L62" s="26">
         <f t="shared" si="14"/>
         <v>362.34739806997749</v>
       </c>
-      <c r="M81" s="28">
+      <c r="M62" s="26">
         <f t="shared" si="14"/>
         <v>61.292594698404017</v>
       </c>
-      <c r="N81" s="28">
+      <c r="N62" s="26">
         <f t="shared" si="14"/>
         <v>239.76220867316925</v>
       </c>
-      <c r="O81" s="9">
+      <c r="O62" s="7">
         <v>480</v>
       </c>
     </row>
-    <row r="82" spans="2:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="B82" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C82" s="8"/>
-      <c r="D82" s="8"/>
-      <c r="E82" s="8"/>
-      <c r="F82" s="8"/>
-      <c r="G82" s="21"/>
-      <c r="H82" s="21"/>
-      <c r="I82" s="28">
-        <f t="shared" ref="I82:N82" si="15">I54/$C$70</f>
+    <row r="63" spans="2:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="B63" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="19"/>
+      <c r="H63" s="19"/>
+      <c r="I63" s="26">
+        <f t="shared" ref="I63:N63" si="15">I35/$C$51</f>
         <v>18.027233734824769</v>
       </c>
-      <c r="J82" s="28">
+      <c r="J63" s="26">
         <f t="shared" si="15"/>
         <v>-1.802723373482477</v>
       </c>
-      <c r="K82" s="28">
+      <c r="K63" s="26">
         <f t="shared" si="15"/>
         <v>1270.9199783051454</v>
       </c>
-      <c r="L82" s="28">
+      <c r="L63" s="26">
         <f t="shared" si="15"/>
         <v>131.59880626422063</v>
       </c>
-      <c r="M82" s="28">
+      <c r="M63" s="26">
         <f t="shared" si="15"/>
         <v>45.068084337061926</v>
       </c>
-      <c r="N82" s="28">
+      <c r="N63" s="26">
         <f t="shared" si="15"/>
         <v>349.72833445560013</v>
       </c>
-      <c r="O82" s="9">
+      <c r="O63" s="7">
         <v>480</v>
       </c>
     </row>
-    <row r="83" spans="2:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="B83" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C83" s="8"/>
-      <c r="D83" s="8"/>
-      <c r="E83" s="8"/>
-      <c r="F83" s="8"/>
-      <c r="G83" s="21"/>
-      <c r="H83" s="21"/>
-      <c r="I83" s="28">
-        <f t="shared" ref="I83:N83" si="16">I55/$C$70</f>
+    <row r="64" spans="2:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="B64" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="19"/>
+      <c r="H64" s="19"/>
+      <c r="I64" s="26">
+        <f t="shared" ref="I64:N64" si="16">I36/$C$51</f>
         <v>52.278977830991636</v>
       </c>
-      <c r="J83" s="28">
+      <c r="J64" s="26">
         <f t="shared" si="16"/>
         <v>68.503488192333933</v>
       </c>
-      <c r="K83" s="28">
+      <c r="K64" s="26">
         <f t="shared" si="16"/>
         <v>456.08901349106628</v>
       </c>
-      <c r="L83" s="28">
+      <c r="L64" s="26">
         <f t="shared" si="16"/>
         <v>2201.1252390221021</v>
       </c>
-      <c r="M83" s="28">
+      <c r="M64" s="26">
         <f t="shared" si="16"/>
         <v>104.55795566198347</v>
       </c>
-      <c r="N83" s="28">
+      <c r="N64" s="26">
         <f t="shared" si="16"/>
         <v>858.09632577765831</v>
       </c>
-      <c r="O83" s="9">
+      <c r="O64" s="7">
         <v>480</v>
       </c>
     </row>
-    <row r="85" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B85" s="19" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="86" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B86" s="5"/>
-      <c r="C86" s="6">
+    <row r="66" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B66" s="17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B67" s="3"/>
+      <c r="C67" s="4">
         <v>1</v>
       </c>
-      <c r="D86" s="6">
+      <c r="D67" s="4">
         <v>2</v>
       </c>
-      <c r="E86" s="6">
+      <c r="E67" s="4">
         <v>3</v>
       </c>
-      <c r="F86" s="6">
+      <c r="F67" s="4">
         <v>4</v>
       </c>
-      <c r="G86" s="6">
+      <c r="G67" s="4">
         <v>5</v>
       </c>
-      <c r="H86" s="6">
+      <c r="H67" s="4">
         <v>6</v>
       </c>
-      <c r="I86" s="6">
+      <c r="I67" s="4">
         <v>7</v>
       </c>
-      <c r="J86" s="6">
+      <c r="J67" s="4">
         <v>8</v>
       </c>
-      <c r="K86" s="6">
+      <c r="K67" s="4">
         <v>9</v>
       </c>
-      <c r="L86" s="6">
+      <c r="L67" s="4">
         <v>10</v>
       </c>
-      <c r="M86" s="6">
+      <c r="M67" s="4">
         <v>11</v>
       </c>
-      <c r="N86" s="6">
+      <c r="N67" s="4">
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="2:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="B87" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C87" s="8"/>
-      <c r="D87" s="8"/>
-      <c r="E87" s="8"/>
-      <c r="F87" s="8"/>
-      <c r="G87" s="21"/>
-      <c r="H87" s="21"/>
-      <c r="I87" s="27">
-        <f>I76/1000</f>
+    <row r="68" spans="2:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="B68" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="19"/>
+      <c r="H68" s="19"/>
+      <c r="I68" s="25">
+        <f>I57/1000</f>
         <v>1.3304098496300669</v>
       </c>
-      <c r="J87" s="27">
-        <f t="shared" ref="J87:N87" si="17">J76/1000</f>
+      <c r="J68" s="25">
+        <f t="shared" ref="J68:N68" si="17">J57/1000</f>
         <v>-1.8027233734824769E-3</v>
       </c>
-      <c r="K87" s="27">
+      <c r="K68" s="25">
         <f t="shared" si="17"/>
         <v>0.1730614438543176</v>
       </c>
-      <c r="L87" s="27">
+      <c r="L68" s="25">
         <f t="shared" si="17"/>
         <v>1.9829957108307247E-2</v>
       </c>
-      <c r="M87" s="27">
+      <c r="M68" s="25">
         <f t="shared" si="17"/>
         <v>0.16765327373387015</v>
       </c>
-      <c r="N87" s="27">
+      <c r="N68" s="25">
         <f t="shared" si="17"/>
         <v>7.5714381686263835E-2</v>
       </c>
-      <c r="O87" s="9">
+      <c r="O68" s="7">
         <v>480</v>
       </c>
     </row>
-    <row r="88" spans="2:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="B88" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C88" s="8"/>
-      <c r="D88" s="8"/>
-      <c r="E88" s="8"/>
-      <c r="F88" s="8"/>
-      <c r="G88" s="21"/>
-      <c r="H88" s="21"/>
-      <c r="I88" s="27">
-        <f t="shared" ref="I88:N88" si="18">I77/1000</f>
+    <row r="69" spans="2:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="B69" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="19"/>
+      <c r="H69" s="19"/>
+      <c r="I69" s="25">
+        <f t="shared" ref="I69:N69" si="18">I58/1000</f>
         <v>7.3911658312781361E-2</v>
       </c>
-      <c r="J88" s="27">
+      <c r="J69" s="25">
         <f t="shared" si="18"/>
         <v>0.31187114361246815</v>
       </c>
-      <c r="K88" s="27">
+      <c r="K69" s="25">
         <f t="shared" si="18"/>
         <v>1.4421786987859815E-2</v>
       </c>
-      <c r="L88" s="27">
+      <c r="L69" s="25">
         <f t="shared" si="18"/>
         <v>0.47411624722589107</v>
       </c>
-      <c r="M88" s="27">
+      <c r="M69" s="25">
         <f t="shared" si="18"/>
         <v>1.0257495995115284</v>
       </c>
-      <c r="N88" s="27">
+      <c r="N69" s="25">
         <f t="shared" si="18"/>
         <v>0.93741615421088731</v>
       </c>
-      <c r="O88" s="9">
+      <c r="O69" s="7">
         <v>480</v>
       </c>
     </row>
-    <row r="89" spans="2:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="B89" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C89" s="8"/>
-      <c r="D89" s="8"/>
-      <c r="E89" s="8"/>
-      <c r="F89" s="8"/>
-      <c r="G89" s="21"/>
-      <c r="H89" s="21"/>
-      <c r="I89" s="27">
-        <f t="shared" ref="I89:N89" si="19">I78/1000</f>
+    <row r="70" spans="2:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="B70" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="19"/>
+      <c r="H70" s="19"/>
+      <c r="I70" s="25">
+        <f t="shared" ref="I70:N70" si="19">I59/1000</f>
         <v>1.3790833807140934</v>
       </c>
-      <c r="J89" s="27">
+      <c r="J70" s="25">
         <f t="shared" si="19"/>
         <v>-2.5238127228754677E-2</v>
       </c>
-      <c r="K89" s="27">
+      <c r="K70" s="25">
         <f t="shared" si="19"/>
         <v>0.45428629011758381</v>
       </c>
-      <c r="L89" s="27">
+      <c r="L70" s="25">
         <f t="shared" si="19"/>
         <v>0.29023846313067836</v>
       </c>
-      <c r="M89" s="27">
+      <c r="M70" s="25">
         <f t="shared" si="19"/>
         <v>1.1735729161370916</v>
       </c>
-      <c r="N89" s="27">
+      <c r="N70" s="25">
         <f t="shared" si="19"/>
         <v>3.0646297349202108E-2</v>
       </c>
-      <c r="O89" s="9">
+      <c r="O70" s="7">
         <v>480</v>
       </c>
     </row>
-    <row r="90" spans="2:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="B90" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C90" s="8"/>
-      <c r="D90" s="8"/>
-      <c r="E90" s="8"/>
-      <c r="F90" s="8"/>
-      <c r="G90" s="21"/>
-      <c r="H90" s="21"/>
-      <c r="I90" s="27">
-        <f t="shared" ref="I90:N90" si="20">I79/1000</f>
+    <row r="71" spans="2:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="B71" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="19"/>
+      <c r="H71" s="19"/>
+      <c r="I71" s="25">
+        <f t="shared" ref="I71:N71" si="20">I60/1000</f>
         <v>8.1122551806711268E-2</v>
       </c>
-      <c r="J90" s="27">
+      <c r="J71" s="25">
         <f t="shared" si="20"/>
         <v>1.6224510361342294E-2</v>
       </c>
-      <c r="K90" s="27">
+      <c r="K71" s="25">
         <f t="shared" si="20"/>
         <v>0.15323148674601034</v>
       </c>
-      <c r="L90" s="27">
+      <c r="L71" s="25">
         <f t="shared" si="20"/>
         <v>0.47051080047892613</v>
       </c>
-      <c r="M90" s="27">
+      <c r="M71" s="25">
         <f t="shared" si="20"/>
         <v>3.4251744096167068E-2</v>
       </c>
-      <c r="N90" s="27">
+      <c r="N71" s="25">
         <f t="shared" si="20"/>
         <v>0.96625972818660688</v>
       </c>
-      <c r="O90" s="9">
+      <c r="O71" s="7">
         <v>480</v>
       </c>
     </row>
-    <row r="91" spans="2:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="B91" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C91" s="8"/>
-      <c r="D91" s="8"/>
-      <c r="E91" s="8"/>
-      <c r="F91" s="8"/>
-      <c r="G91" s="21"/>
-      <c r="H91" s="21"/>
-      <c r="I91" s="27">
-        <f t="shared" ref="I91:N91" si="21">I80/1000</f>
+    <row r="72" spans="2:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="B72" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="19"/>
+      <c r="H72" s="19"/>
+      <c r="I72" s="25">
+        <f t="shared" ref="I72:N72" si="21">I61/1000</f>
         <v>1.8027233734824769E-3</v>
       </c>
-      <c r="J91" s="27">
+      <c r="J72" s="25">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="K91" s="27">
+      <c r="K72" s="25">
         <f t="shared" si="21"/>
         <v>1.4656141026412524</v>
       </c>
-      <c r="L91" s="27">
+      <c r="L72" s="25">
         <f t="shared" si="21"/>
         <v>1.0852394708364499</v>
       </c>
-      <c r="M91" s="27">
+      <c r="M72" s="25">
         <f t="shared" si="21"/>
         <v>6.8503488192333928E-2</v>
       </c>
-      <c r="N91" s="27">
+      <c r="N72" s="25">
         <f t="shared" si="21"/>
         <v>0.14602059325208044</v>
       </c>
-      <c r="O91" s="9">
+      <c r="O72" s="7">
         <v>480</v>
       </c>
     </row>
-    <row r="92" spans="2:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="B92" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C92" s="8"/>
-      <c r="D92" s="8"/>
-      <c r="E92" s="8"/>
-      <c r="F92" s="8"/>
-      <c r="G92" s="21"/>
-      <c r="H92" s="21"/>
-      <c r="I92" s="27">
-        <f t="shared" ref="I92:N92" si="22">I81/1000</f>
+    <row r="73" spans="2:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="B73" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="19"/>
+      <c r="H73" s="19"/>
+      <c r="I73" s="25">
+        <f t="shared" ref="I73:N73" si="22">I62/1000</f>
         <v>6.3095318071886494E-2</v>
       </c>
-      <c r="J92" s="27">
+      <c r="J73" s="25">
         <f t="shared" si="22"/>
         <v>0.46510263035847865</v>
       </c>
-      <c r="K92" s="27">
+      <c r="K73" s="25">
         <f t="shared" si="22"/>
         <v>1.5142876337252795</v>
       </c>
-      <c r="L92" s="27">
+      <c r="L73" s="25">
         <f t="shared" si="22"/>
         <v>0.36234739806997751</v>
       </c>
-      <c r="M92" s="27">
+      <c r="M73" s="25">
         <f t="shared" si="22"/>
         <v>6.1292594698404014E-2</v>
       </c>
-      <c r="N92" s="27">
+      <c r="N73" s="25">
         <f t="shared" si="22"/>
         <v>0.23976220867316925</v>
       </c>
-      <c r="O92" s="9">
+      <c r="O73" s="7">
         <v>480</v>
       </c>
     </row>
-    <row r="93" spans="2:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="B93" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C93" s="8"/>
-      <c r="D93" s="8"/>
-      <c r="E93" s="8"/>
-      <c r="F93" s="8"/>
-      <c r="G93" s="21"/>
-      <c r="H93" s="21"/>
-      <c r="I93" s="27">
-        <f t="shared" ref="I93:N93" si="23">I82/1000</f>
+    <row r="74" spans="2:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="B74" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="19"/>
+      <c r="H74" s="19"/>
+      <c r="I74" s="25">
+        <f t="shared" ref="I74:N74" si="23">I63/1000</f>
         <v>1.8027233734824767E-2</v>
       </c>
-      <c r="J93" s="27">
+      <c r="J74" s="25">
         <f t="shared" si="23"/>
         <v>-1.8027233734824769E-3</v>
       </c>
-      <c r="K93" s="27">
+      <c r="K74" s="25">
         <f t="shared" si="23"/>
         <v>1.2709199783051455</v>
       </c>
-      <c r="L93" s="27">
+      <c r="L74" s="25">
         <f t="shared" si="23"/>
         <v>0.13159880626422063</v>
       </c>
-      <c r="M93" s="27">
+      <c r="M74" s="25">
         <f t="shared" si="23"/>
         <v>4.5068084337061928E-2</v>
       </c>
-      <c r="N93" s="27">
+      <c r="N74" s="25">
         <f t="shared" si="23"/>
         <v>0.34972833445560014</v>
       </c>
-      <c r="O93" s="9">
+      <c r="O74" s="7">
         <v>480</v>
       </c>
     </row>
-    <row r="94" spans="2:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="B94" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C94" s="8"/>
-      <c r="D94" s="8"/>
-      <c r="E94" s="8"/>
-      <c r="F94" s="8"/>
-      <c r="G94" s="21"/>
-      <c r="H94" s="21"/>
-      <c r="I94" s="27">
-        <f t="shared" ref="I94:N94" si="24">I83/1000</f>
+    <row r="75" spans="2:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="B75" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="19"/>
+      <c r="H75" s="19"/>
+      <c r="I75" s="25">
+        <f t="shared" ref="I75:N75" si="24">I64/1000</f>
         <v>5.2278977830991634E-2</v>
       </c>
-      <c r="J94" s="27">
+      <c r="J75" s="25">
         <f t="shared" si="24"/>
         <v>6.8503488192333928E-2</v>
       </c>
-      <c r="K94" s="27">
+      <c r="K75" s="25">
         <f t="shared" si="24"/>
         <v>0.45608901349106629</v>
       </c>
-      <c r="L94" s="27">
+      <c r="L75" s="25">
         <f t="shared" si="24"/>
         <v>2.2011252390221019</v>
       </c>
-      <c r="M94" s="27">
+      <c r="M75" s="25">
         <f t="shared" si="24"/>
         <v>0.10455795566198348</v>
       </c>
-      <c r="N94" s="27">
+      <c r="N75" s="25">
         <f t="shared" si="24"/>
         <v>0.85809632577765826</v>
       </c>
-      <c r="O94" s="9">
+      <c r="O75" s="7">
         <v>480</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I76:N83">
+  <conditionalFormatting sqref="I57:N64">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -7428,7 +7138,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I87:N94">
+  <conditionalFormatting sqref="I68:N75">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -7448,7 +7158,7 @@
   <dimension ref="A2:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -7459,755 +7169,755 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="B2" s="41" t="s">
-        <v>109</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
+      <c r="B2" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
     </row>
     <row r="4" spans="1:15" ht="19" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="32"/>
-      <c r="C4" s="33">
+      <c r="B4" s="30"/>
+      <c r="C4" s="31">
         <v>1</v>
       </c>
-      <c r="D4" s="33">
+      <c r="D4" s="31">
         <v>2</v>
       </c>
-      <c r="E4" s="33">
+      <c r="E4" s="31">
         <v>3</v>
       </c>
-      <c r="F4" s="33">
+      <c r="F4" s="31">
         <v>4</v>
       </c>
-      <c r="G4" s="33">
+      <c r="G4" s="31">
         <v>5</v>
       </c>
-      <c r="H4" s="33">
+      <c r="H4" s="31">
         <v>6</v>
       </c>
-      <c r="I4" s="33">
+      <c r="I4" s="31">
         <v>7</v>
       </c>
-      <c r="J4" s="33">
+      <c r="J4" s="31">
         <v>8</v>
       </c>
-      <c r="K4" s="33">
+      <c r="K4" s="31">
         <v>9</v>
       </c>
-      <c r="L4" s="33">
+      <c r="L4" s="31">
         <v>10</v>
       </c>
-      <c r="M4" s="33">
+      <c r="M4" s="31">
         <v>11</v>
       </c>
-      <c r="N4" s="33">
+      <c r="N4" s="31">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="19" x14ac:dyDescent="0.15">
-      <c r="B5" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="42">
-        <f>'1st half plate'!C88</f>
+      <c r="B5" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="36">
+        <f>'col1-6'!C68</f>
         <v>0.14019496106830195</v>
       </c>
-      <c r="D5" s="43">
-        <f>'1st half plate'!D88</f>
+      <c r="D5" s="37">
+        <f>'col1-6'!D68</f>
         <v>0.15187787449066045</v>
       </c>
-      <c r="E5" s="43">
-        <f>'1st half plate'!E88</f>
+      <c r="E5" s="37">
+        <f>'col1-6'!E68</f>
         <v>5.4520262637672914E-2</v>
       </c>
-      <c r="F5" s="43">
-        <f>'1st half plate'!F88</f>
+      <c r="F5" s="37">
+        <f>'col1-6'!F68</f>
         <v>8.1780393956509434E-2</v>
       </c>
-      <c r="G5" s="43">
-        <f>'1st half plate'!G88</f>
+      <c r="G5" s="37">
+        <f>'col1-6'!G68</f>
         <v>0.49652382045023591</v>
       </c>
-      <c r="H5" s="43">
-        <f>'1st half plate'!H88</f>
+      <c r="H5" s="37">
+        <f>'col1-6'!H68</f>
         <v>0.13824780883124219</v>
       </c>
-      <c r="I5" s="43">
-        <f>'2nd half plate'!I87</f>
+      <c r="I5" s="37">
+        <f>'col7-12'!I68</f>
         <v>1.3304098496300669</v>
       </c>
-      <c r="J5" s="43">
-        <f>'2nd half plate'!J87</f>
+      <c r="J5" s="37">
+        <f>'col7-12'!J68</f>
         <v>-1.8027233734824769E-3</v>
       </c>
-      <c r="K5" s="43">
-        <f>'2nd half plate'!K87</f>
+      <c r="K5" s="37">
+        <f>'col7-12'!K68</f>
         <v>0.1730614438543176</v>
       </c>
-      <c r="L5" s="43">
-        <f>'2nd half plate'!L87</f>
+      <c r="L5" s="37">
+        <f>'col7-12'!L68</f>
         <v>1.9829957108307247E-2</v>
       </c>
-      <c r="M5" s="43">
-        <f>'2nd half plate'!M87</f>
+      <c r="M5" s="37">
+        <f>'col7-12'!M68</f>
         <v>0.16765327373387015</v>
       </c>
-      <c r="N5" s="44">
-        <f>'2nd half plate'!N87</f>
+      <c r="N5" s="38">
+        <f>'col7-12'!N68</f>
         <v>7.5714381686263835E-2</v>
       </c>
-      <c r="O5" s="37"/>
+      <c r="O5" s="35"/>
     </row>
     <row r="6" spans="1:15" ht="19" x14ac:dyDescent="0.15">
-      <c r="B6" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="45">
-        <f>'1st half plate'!C89</f>
+      <c r="B6" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="39">
+        <f>'col1-6'!C69</f>
         <v>7.0097480534150922E-2</v>
       </c>
-      <c r="D6" s="46">
-        <f>'1st half plate'!D89</f>
+      <c r="D6" s="40">
+        <f>'col1-6'!D69</f>
         <v>8.1780393956509434E-2</v>
       </c>
-      <c r="E6" s="46">
-        <f>'1st half plate'!E89</f>
+      <c r="E6" s="40">
+        <f>'col1-6'!E69</f>
         <v>3.5048740267075405E-2</v>
       </c>
-      <c r="F6" s="46">
-        <f>'1st half plate'!F89</f>
+      <c r="F6" s="40">
+        <f>'col1-6'!F69</f>
         <v>0.12461774317182393</v>
       </c>
-      <c r="G6" s="46">
-        <f>'1st half plate'!G89</f>
+      <c r="G6" s="40">
+        <f>'col1-6'!G69</f>
         <v>0.15187787449066045</v>
       </c>
-      <c r="H6" s="46">
-        <f>'1st half plate'!H89</f>
+      <c r="H6" s="40">
+        <f>'col1-6'!H69</f>
         <v>0.192768071468915</v>
       </c>
-      <c r="I6" s="46">
-        <f>'2nd half plate'!I88</f>
+      <c r="I6" s="40">
+        <f>'col7-12'!I69</f>
         <v>7.3911658312781361E-2</v>
       </c>
-      <c r="J6" s="46">
-        <f>'2nd half plate'!J88</f>
+      <c r="J6" s="40">
+        <f>'col7-12'!J69</f>
         <v>0.31187114361246815</v>
       </c>
-      <c r="K6" s="46">
-        <f>'2nd half plate'!K88</f>
+      <c r="K6" s="40">
+        <f>'col7-12'!K69</f>
         <v>1.4421786987859815E-2</v>
       </c>
-      <c r="L6" s="46">
-        <f>'2nd half plate'!L88</f>
+      <c r="L6" s="40">
+        <f>'col7-12'!L69</f>
         <v>0.47411624722589107</v>
       </c>
-      <c r="M6" s="46">
-        <f>'2nd half plate'!M88</f>
+      <c r="M6" s="40">
+        <f>'col7-12'!M69</f>
         <v>1.0257495995115284</v>
       </c>
-      <c r="N6" s="47">
-        <f>'2nd half plate'!N88</f>
+      <c r="N6" s="41">
+        <f>'col7-12'!N69</f>
         <v>0.93741615421088731</v>
       </c>
-      <c r="O6" s="37"/>
+      <c r="O6" s="35"/>
     </row>
     <row r="7" spans="1:15" ht="19" x14ac:dyDescent="0.15">
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="39">
+        <f>'col1-6'!C70</f>
+        <v>5.0625958163553413E-2</v>
+      </c>
+      <c r="D7" s="40">
+        <f>'col1-6'!D70</f>
+        <v>0.92100300812926117</v>
+      </c>
+      <c r="E7" s="40">
+        <f>'col1-6'!E70</f>
+        <v>3.1154435792955903E-2</v>
+      </c>
+      <c r="F7" s="40">
+        <f>'col1-6'!F70</f>
+        <v>0.11682913422358493</v>
+      </c>
+      <c r="G7" s="40">
+        <f>'col1-6'!G70</f>
+        <v>0.19860952818009425</v>
+      </c>
+      <c r="H7" s="40">
+        <f>'col1-6'!H70</f>
+        <v>1.2753847152741358</v>
+      </c>
+      <c r="I7" s="40">
+        <f>'col7-12'!I70</f>
+        <v>1.3790833807140934</v>
+      </c>
+      <c r="J7" s="40">
+        <f>'col7-12'!J70</f>
+        <v>-2.5238127228754677E-2</v>
+      </c>
+      <c r="K7" s="40">
+        <f>'col7-12'!K70</f>
+        <v>0.45428629011758381</v>
+      </c>
+      <c r="L7" s="40">
+        <f>'col7-12'!L70</f>
+        <v>0.29023846313067836</v>
+      </c>
+      <c r="M7" s="40">
+        <f>'col7-12'!M70</f>
+        <v>1.1735729161370916</v>
+      </c>
+      <c r="N7" s="41">
+        <f>'col7-12'!N70</f>
+        <v>3.0646297349202108E-2</v>
+      </c>
+      <c r="O7" s="7"/>
+    </row>
+    <row r="8" spans="1:15" ht="19" x14ac:dyDescent="0.15">
+      <c r="B8" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="39">
+        <f>'col1-6'!C71</f>
+        <v>7.3991785008270416E-2</v>
+      </c>
+      <c r="D8" s="40">
+        <f>'col1-6'!D71</f>
+        <v>1.1682913422358494</v>
+      </c>
+      <c r="E8" s="40">
+        <f>'col1-6'!E71</f>
+        <v>5.0625958163553413E-2</v>
+      </c>
+      <c r="F8" s="40">
+        <f>'col1-6'!F71</f>
+        <v>0.29012568332190258</v>
+      </c>
+      <c r="G8" s="40">
+        <f>'col1-6'!G71</f>
+        <v>0.10125191632710692</v>
+      </c>
+      <c r="H8" s="40">
+        <f>'col1-6'!H71</f>
+        <v>0.21418674607657226</v>
+      </c>
+      <c r="I8" s="40">
+        <f>'col7-12'!I71</f>
+        <v>8.1122551806711268E-2</v>
+      </c>
+      <c r="J8" s="40">
+        <f>'col7-12'!J71</f>
+        <v>1.6224510361342294E-2</v>
+      </c>
+      <c r="K8" s="40">
+        <f>'col7-12'!K71</f>
+        <v>0.15323148674601034</v>
+      </c>
+      <c r="L8" s="40">
+        <f>'col7-12'!L71</f>
+        <v>0.47051080047892613</v>
+      </c>
+      <c r="M8" s="40">
+        <f>'col7-12'!M71</f>
+        <v>3.4251744096167068E-2</v>
+      </c>
+      <c r="N8" s="41">
+        <f>'col7-12'!N71</f>
+        <v>0.96625972818660688</v>
+      </c>
+      <c r="O8" s="7"/>
+    </row>
+    <row r="9" spans="1:15" ht="19" x14ac:dyDescent="0.15">
+      <c r="B9" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="39">
+        <f>'col1-6'!C72</f>
+        <v>7.7886089482389925E-2</v>
+      </c>
+      <c r="D9" s="40">
+        <f>'col1-6'!D72</f>
+        <v>0.17719085357243719</v>
+      </c>
+      <c r="E9" s="40">
+        <f>'col1-6'!E72</f>
+        <v>3.3101588030015658E-2</v>
+      </c>
+      <c r="F9" s="40">
+        <f>'col1-6'!F72</f>
+        <v>0.31154435792955981</v>
+      </c>
+      <c r="G9" s="40">
+        <f>'col1-6'!G72</f>
+        <v>1.6881809895308024</v>
+      </c>
+      <c r="H9" s="40">
+        <f>'col1-6'!H72</f>
+        <v>0.10125191632710692</v>
+      </c>
+      <c r="I9" s="40">
+        <f>'col7-12'!I72</f>
+        <v>1.8027233734824769E-3</v>
+      </c>
+      <c r="J9" s="40">
+        <f>'col7-12'!J72</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="40">
+        <f>'col7-12'!K72</f>
+        <v>1.4656141026412524</v>
+      </c>
+      <c r="L9" s="40">
+        <f>'col7-12'!L72</f>
+        <v>1.0852394708364499</v>
+      </c>
+      <c r="M9" s="40">
+        <f>'col7-12'!M72</f>
+        <v>6.8503488192333928E-2</v>
+      </c>
+      <c r="N9" s="41">
+        <f>'col7-12'!N72</f>
+        <v>0.14602059325208044</v>
+      </c>
+      <c r="O9" s="7"/>
+    </row>
+    <row r="10" spans="1:15" ht="19" x14ac:dyDescent="0.15">
+      <c r="B10" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="45">
-        <f>'1st half plate'!C90</f>
-        <v>5.0625958163553413E-2</v>
-      </c>
-      <c r="D7" s="46">
-        <f>'1st half plate'!D90</f>
-        <v>0.92100300812926117</v>
-      </c>
-      <c r="E7" s="46">
-        <f>'1st half plate'!E90</f>
-        <v>3.1154435792955903E-2</v>
-      </c>
-      <c r="F7" s="46">
-        <f>'1st half plate'!F90</f>
-        <v>0.11682913422358493</v>
-      </c>
-      <c r="G7" s="46">
-        <f>'1st half plate'!G90</f>
-        <v>0.19860952818009425</v>
-      </c>
-      <c r="H7" s="46">
-        <f>'1st half plate'!H90</f>
-        <v>1.2753847152741358</v>
-      </c>
-      <c r="I7" s="46">
-        <f>'2nd half plate'!I89</f>
-        <v>1.3790833807140934</v>
-      </c>
-      <c r="J7" s="46">
-        <f>'2nd half plate'!J89</f>
-        <v>-2.5238127228754677E-2</v>
-      </c>
-      <c r="K7" s="46">
-        <f>'2nd half plate'!K89</f>
-        <v>0.45428629011758381</v>
-      </c>
-      <c r="L7" s="46">
-        <f>'2nd half plate'!L89</f>
-        <v>0.29023846313067836</v>
-      </c>
-      <c r="M7" s="46">
-        <f>'2nd half plate'!M89</f>
-        <v>1.1735729161370916</v>
-      </c>
-      <c r="N7" s="47">
-        <f>'2nd half plate'!N89</f>
-        <v>3.0646297349202108E-2</v>
-      </c>
-      <c r="O7" s="9"/>
-    </row>
-    <row r="8" spans="1:15" ht="19" x14ac:dyDescent="0.15">
-      <c r="B8" s="33" t="s">
+      <c r="C10" s="39">
+        <f>'col1-6'!C73</f>
+        <v>0.45173931899786163</v>
+      </c>
+      <c r="D10" s="40">
+        <f>'col1-6'!D73</f>
+        <v>5.4520262637672914E-2</v>
+      </c>
+      <c r="E10" s="40">
+        <f>'col1-6'!E73</f>
+        <v>0.20834528936539301</v>
+      </c>
+      <c r="F10" s="40">
+        <f>'col1-6'!F73</f>
+        <v>0.14993072225360068</v>
+      </c>
+      <c r="G10" s="40">
+        <f>'col1-6'!G73</f>
+        <v>0.30570290121838051</v>
+      </c>
+      <c r="H10" s="40">
+        <f>'col1-6'!H73</f>
+        <v>0.192768071468915</v>
+      </c>
+      <c r="I10" s="40">
+        <f>'col7-12'!I73</f>
+        <v>6.3095318071886494E-2</v>
+      </c>
+      <c r="J10" s="40">
+        <f>'col7-12'!J73</f>
+        <v>0.46510263035847865</v>
+      </c>
+      <c r="K10" s="40">
+        <f>'col7-12'!K73</f>
+        <v>1.5142876337252795</v>
+      </c>
+      <c r="L10" s="40">
+        <f>'col7-12'!L73</f>
+        <v>0.36234739806997751</v>
+      </c>
+      <c r="M10" s="40">
+        <f>'col7-12'!M73</f>
+        <v>6.1292594698404014E-2</v>
+      </c>
+      <c r="N10" s="41">
+        <f>'col7-12'!N73</f>
+        <v>0.23976220867316925</v>
+      </c>
+      <c r="O10" s="7"/>
+    </row>
+    <row r="11" spans="1:15" ht="19" x14ac:dyDescent="0.15">
+      <c r="B11" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="45">
-        <f>'1st half plate'!C91</f>
-        <v>7.3991785008270416E-2</v>
-      </c>
-      <c r="D8" s="46">
-        <f>'1st half plate'!D91</f>
-        <v>1.1682913422358494</v>
-      </c>
-      <c r="E8" s="46">
-        <f>'1st half plate'!E91</f>
-        <v>5.0625958163553413E-2</v>
-      </c>
-      <c r="F8" s="46">
-        <f>'1st half plate'!F91</f>
-        <v>0.29012568332190258</v>
-      </c>
-      <c r="G8" s="46">
-        <f>'1st half plate'!G91</f>
-        <v>0.10125191632710692</v>
-      </c>
-      <c r="H8" s="46">
-        <f>'1st half plate'!H91</f>
-        <v>0.21418674607657226</v>
-      </c>
-      <c r="I8" s="46">
-        <f>'2nd half plate'!I90</f>
-        <v>8.1122551806711268E-2</v>
-      </c>
-      <c r="J8" s="46">
-        <f>'2nd half plate'!J90</f>
-        <v>1.6224510361342294E-2</v>
-      </c>
-      <c r="K8" s="46">
-        <f>'2nd half plate'!K90</f>
-        <v>0.15323148674601034</v>
-      </c>
-      <c r="L8" s="46">
-        <f>'2nd half plate'!L90</f>
-        <v>0.47051080047892613</v>
-      </c>
-      <c r="M8" s="46">
-        <f>'2nd half plate'!M90</f>
-        <v>3.4251744096167068E-2</v>
-      </c>
-      <c r="N8" s="47">
-        <f>'2nd half plate'!N90</f>
-        <v>0.96625972818660688</v>
-      </c>
-      <c r="O8" s="9"/>
-    </row>
-    <row r="9" spans="1:15" ht="19" x14ac:dyDescent="0.15">
-      <c r="B9" s="33" t="s">
+      <c r="C11" s="39">
+        <f>'col1-6'!C74</f>
+        <v>0.16161363567595918</v>
+      </c>
+      <c r="D11" s="40">
+        <f>'col1-6'!D74</f>
+        <v>8.3727546193569174E-2</v>
+      </c>
+      <c r="E11" s="40">
+        <f>'col1-6'!E74</f>
+        <v>0.16550794015007869</v>
+      </c>
+      <c r="F11" s="40">
+        <f>'col1-6'!F74</f>
+        <v>5.4520262637672914E-2</v>
+      </c>
+      <c r="G11" s="40">
+        <f>'col1-6'!G74</f>
+        <v>0.11098767751240568</v>
+      </c>
+      <c r="H11" s="40">
+        <f>'col1-6'!H74</f>
+        <v>0.18692661475773573</v>
+      </c>
+      <c r="I11" s="40">
+        <f>'col7-12'!I74</f>
+        <v>1.8027233734824767E-2</v>
+      </c>
+      <c r="J11" s="40">
+        <f>'col7-12'!J74</f>
+        <v>-1.8027233734824769E-3</v>
+      </c>
+      <c r="K11" s="40">
+        <f>'col7-12'!K74</f>
+        <v>1.2709199783051455</v>
+      </c>
+      <c r="L11" s="40">
+        <f>'col7-12'!L74</f>
+        <v>0.13159880626422063</v>
+      </c>
+      <c r="M11" s="40">
+        <f>'col7-12'!M74</f>
+        <v>4.5068084337061928E-2</v>
+      </c>
+      <c r="N11" s="41">
+        <f>'col7-12'!N74</f>
+        <v>0.34972833445560014</v>
+      </c>
+      <c r="O11" s="7"/>
+    </row>
+    <row r="12" spans="1:15" ht="20" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="45">
-        <f>'1st half plate'!C92</f>
-        <v>7.7886089482389925E-2</v>
-      </c>
-      <c r="D9" s="46">
-        <f>'1st half plate'!D92</f>
-        <v>0.17719085357243719</v>
-      </c>
-      <c r="E9" s="46">
-        <f>'1st half plate'!E92</f>
-        <v>3.3101588030015658E-2</v>
-      </c>
-      <c r="F9" s="46">
-        <f>'1st half plate'!F92</f>
-        <v>0.31154435792955981</v>
-      </c>
-      <c r="G9" s="46">
-        <f>'1st half plate'!G92</f>
-        <v>1.6881809895308024</v>
-      </c>
-      <c r="H9" s="46">
-        <f>'1st half plate'!H92</f>
-        <v>0.10125191632710692</v>
-      </c>
-      <c r="I9" s="46">
-        <f>'2nd half plate'!I91</f>
-        <v>1.8027233734824769E-3</v>
-      </c>
-      <c r="J9" s="46">
-        <f>'2nd half plate'!J91</f>
-        <v>0</v>
-      </c>
-      <c r="K9" s="46">
-        <f>'2nd half plate'!K91</f>
-        <v>1.4656141026412524</v>
-      </c>
-      <c r="L9" s="46">
-        <f>'2nd half plate'!L91</f>
-        <v>1.0852394708364499</v>
-      </c>
-      <c r="M9" s="46">
-        <f>'2nd half plate'!M91</f>
+      <c r="C12" s="42">
+        <f>'col1-6'!C75</f>
+        <v>0.4536864712349214</v>
+      </c>
+      <c r="D12" s="43">
+        <f>'col1-6'!D75</f>
+        <v>0.88790142009924555</v>
+      </c>
+      <c r="E12" s="43">
+        <f>'col1-6'!E75</f>
+        <v>0.97552327076693401</v>
+      </c>
+      <c r="F12" s="43">
+        <f>'col1-6'!F75</f>
+        <v>0.13435350435712268</v>
+      </c>
+      <c r="G12" s="43">
+        <f>'col1-6'!G75</f>
+        <v>0.11098767751240568</v>
+      </c>
+      <c r="H12" s="43">
+        <f>'col1-6'!H75</f>
+        <v>0.28428422661072328</v>
+      </c>
+      <c r="I12" s="43">
+        <f>'col7-12'!I75</f>
+        <v>5.2278977830991634E-2</v>
+      </c>
+      <c r="J12" s="43">
+        <f>'col7-12'!J75</f>
         <v>6.8503488192333928E-2</v>
       </c>
-      <c r="N9" s="47">
-        <f>'2nd half plate'!N91</f>
-        <v>0.14602059325208044</v>
-      </c>
-      <c r="O9" s="9"/>
-    </row>
-    <row r="10" spans="1:15" ht="19" x14ac:dyDescent="0.15">
-      <c r="B10" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="45">
-        <f>'1st half plate'!C93</f>
-        <v>0.45173931899786163</v>
-      </c>
-      <c r="D10" s="46">
-        <f>'1st half plate'!D93</f>
-        <v>5.4520262637672914E-2</v>
-      </c>
-      <c r="E10" s="46">
-        <f>'1st half plate'!E93</f>
-        <v>0.20834528936539301</v>
-      </c>
-      <c r="F10" s="46">
-        <f>'1st half plate'!F93</f>
-        <v>0.14993072225360068</v>
-      </c>
-      <c r="G10" s="46">
-        <f>'1st half plate'!G93</f>
-        <v>0.30570290121838051</v>
-      </c>
-      <c r="H10" s="46">
-        <f>'1st half plate'!H93</f>
-        <v>0.192768071468915</v>
-      </c>
-      <c r="I10" s="46">
-        <f>'2nd half plate'!I92</f>
-        <v>6.3095318071886494E-2</v>
-      </c>
-      <c r="J10" s="46">
-        <f>'2nd half plate'!J92</f>
-        <v>0.46510263035847865</v>
-      </c>
-      <c r="K10" s="46">
-        <f>'2nd half plate'!K92</f>
-        <v>1.5142876337252795</v>
-      </c>
-      <c r="L10" s="46">
-        <f>'2nd half plate'!L92</f>
-        <v>0.36234739806997751</v>
-      </c>
-      <c r="M10" s="46">
-        <f>'2nd half plate'!M92</f>
-        <v>6.1292594698404014E-2</v>
-      </c>
-      <c r="N10" s="47">
-        <f>'2nd half plate'!N92</f>
-        <v>0.23976220867316925</v>
-      </c>
-      <c r="O10" s="9"/>
-    </row>
-    <row r="11" spans="1:15" ht="19" x14ac:dyDescent="0.15">
-      <c r="B11" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" s="45">
-        <f>'1st half plate'!C94</f>
-        <v>0.16161363567595918</v>
-      </c>
-      <c r="D11" s="46">
-        <f>'1st half plate'!D94</f>
-        <v>8.3727546193569174E-2</v>
-      </c>
-      <c r="E11" s="46">
-        <f>'1st half plate'!E94</f>
-        <v>0.16550794015007869</v>
-      </c>
-      <c r="F11" s="46">
-        <f>'1st half plate'!F94</f>
-        <v>5.4520262637672914E-2</v>
-      </c>
-      <c r="G11" s="46">
-        <f>'1st half plate'!G94</f>
-        <v>0.11098767751240568</v>
-      </c>
-      <c r="H11" s="46">
-        <f>'1st half plate'!H94</f>
-        <v>0.18692661475773573</v>
-      </c>
-      <c r="I11" s="46">
-        <f>'2nd half plate'!I93</f>
-        <v>1.8027233734824767E-2</v>
-      </c>
-      <c r="J11" s="46">
-        <f>'2nd half plate'!J93</f>
-        <v>-1.8027233734824769E-3</v>
-      </c>
-      <c r="K11" s="46">
-        <f>'2nd half plate'!K93</f>
-        <v>1.2709199783051455</v>
-      </c>
-      <c r="L11" s="46">
-        <f>'2nd half plate'!L93</f>
-        <v>0.13159880626422063</v>
-      </c>
-      <c r="M11" s="46">
-        <f>'2nd half plate'!M93</f>
-        <v>4.5068084337061928E-2</v>
-      </c>
-      <c r="N11" s="47">
-        <f>'2nd half plate'!N93</f>
-        <v>0.34972833445560014</v>
-      </c>
-      <c r="O11" s="9"/>
-    </row>
-    <row r="12" spans="1:15" ht="20" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="33" t="s">
+      <c r="K12" s="43">
+        <f>'col7-12'!K75</f>
+        <v>0.45608901349106629</v>
+      </c>
+      <c r="L12" s="43">
+        <f>'col7-12'!L75</f>
+        <v>2.2011252390221019</v>
+      </c>
+      <c r="M12" s="43">
+        <f>'col7-12'!M75</f>
+        <v>0.10455795566198348</v>
+      </c>
+      <c r="N12" s="44">
+        <f>'col7-12'!N75</f>
+        <v>0.85809632577765826</v>
+      </c>
+      <c r="O12" s="7"/>
+    </row>
+    <row r="13" spans="1:15" ht="18" x14ac:dyDescent="0.15">
+      <c r="B13" s="31"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="7"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B14" s="24"/>
+    </row>
+    <row r="15" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="33"/>
+      <c r="B15" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" s="45"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A16" s="33"/>
+      <c r="B16" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="C12" s="48">
-        <f>'1st half plate'!C95</f>
-        <v>0.4536864712349214</v>
-      </c>
-      <c r="D12" s="49">
-        <f>'1st half plate'!D95</f>
-        <v>0.88790142009924555</v>
-      </c>
-      <c r="E12" s="49">
-        <f>'1st half plate'!E95</f>
-        <v>0.97552327076693401</v>
-      </c>
-      <c r="F12" s="49">
-        <f>'1st half plate'!F95</f>
-        <v>0.13435350435712268</v>
-      </c>
-      <c r="G12" s="49">
-        <f>'1st half plate'!G95</f>
-        <v>0.11098767751240568</v>
-      </c>
-      <c r="H12" s="49">
-        <f>'1st half plate'!H95</f>
-        <v>0.28428422661072328</v>
-      </c>
-      <c r="I12" s="49">
-        <f>'2nd half plate'!I94</f>
-        <v>5.2278977830991634E-2</v>
-      </c>
-      <c r="J12" s="49">
-        <f>'2nd half plate'!J94</f>
-        <v>6.8503488192333928E-2</v>
-      </c>
-      <c r="K12" s="49">
-        <f>'2nd half plate'!K94</f>
-        <v>0.45608901349106629</v>
-      </c>
-      <c r="L12" s="49">
-        <f>'2nd half plate'!L94</f>
-        <v>2.2011252390221019</v>
-      </c>
-      <c r="M12" s="49">
-        <f>'2nd half plate'!M94</f>
-        <v>0.10455795566198348</v>
-      </c>
-      <c r="N12" s="50">
-        <f>'2nd half plate'!N94</f>
-        <v>0.85809632577765826</v>
-      </c>
-      <c r="O12" s="9"/>
-    </row>
-    <row r="13" spans="1:15" ht="18" x14ac:dyDescent="0.15">
-      <c r="B13" s="33"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="9"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B14" s="26"/>
-    </row>
-    <row r="15" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="35"/>
-      <c r="B15" s="39" t="s">
-        <v>110</v>
-      </c>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="F15" s="38"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A16" s="35"/>
-      <c r="B16" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35">
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33">
         <f>COUNT(C5:M5,C6:M6,C7:N12)</f>
         <v>94</v>
       </c>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A17" s="35"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
+      <c r="A17" s="33"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A18" s="35"/>
-      <c r="B18" s="38" t="s">
-        <v>113</v>
-      </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="31">
+      <c r="A18" s="33"/>
+      <c r="B18" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="45"/>
+      <c r="D18" s="29">
         <f>COUNTIF(C5:M5, "&gt;0.1")+COUNTIF(C6:M6, "&gt;0.1")+COUNTIF(C7:N12, "&gt;0.1")</f>
         <v>61</v>
       </c>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A19" s="35"/>
-      <c r="B19" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="30">
+      <c r="A19" s="33"/>
+      <c r="B19" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="45"/>
+      <c r="D19" s="28">
         <f>D18/E16</f>
         <v>0.64893617021276595</v>
       </c>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A20" s="35"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
+      <c r="A20" s="33"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A21" s="35"/>
-      <c r="B21" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="C21" s="38"/>
-      <c r="D21" s="31">
+      <c r="A21" s="33"/>
+      <c r="B21" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="45"/>
+      <c r="D21" s="29">
         <f>COUNTIF(C5:M5, "&gt;0.5")+COUNTIF(C6:M6, "&gt;0.5")+COUNTIF(C7:N12, "&gt;0.5")</f>
         <v>17</v>
       </c>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A22" s="35"/>
-      <c r="B22" s="38" t="s">
-        <v>116</v>
-      </c>
-      <c r="C22" s="38"/>
-      <c r="D22" s="30">
+      <c r="A22" s="33"/>
+      <c r="B22" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="45"/>
+      <c r="D22" s="28">
         <f>D21/E16</f>
         <v>0.18085106382978725</v>
       </c>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A23" s="35"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
+      <c r="A23" s="33"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A24" s="35"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
+      <c r="A24" s="33"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A25" s="35"/>
-      <c r="B25" s="40" t="s">
-        <v>117</v>
-      </c>
-      <c r="C25" s="40"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="40" t="s">
-        <v>118</v>
-      </c>
-      <c r="F25" s="40"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="40" t="s">
-        <v>119</v>
-      </c>
-      <c r="I25" s="40"/>
-      <c r="J25" s="35"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="47"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="F25" s="47"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="I25" s="47"/>
+      <c r="J25" s="33"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A26" s="35"/>
-      <c r="B26" s="36" t="s">
-        <v>120</v>
-      </c>
-      <c r="C26" s="31">
+      <c r="A26" s="33"/>
+      <c r="B26" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" s="29">
         <f>COUNTIF(C5:M5, "&lt;0.1")+COUNTIF(C6:M6, "&lt;0.1")+COUNTIF(C7:N12, "&lt;0.1")</f>
         <v>33</v>
       </c>
-      <c r="D26" s="35"/>
-      <c r="E26" s="36" t="s">
-        <v>120</v>
-      </c>
-      <c r="F26" s="31">
+      <c r="D26" s="33"/>
+      <c r="E26" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="F26" s="29">
         <f>COUNTIFS(C5:M5, "&gt;0.1",C5:M5, "&lt;0.5")+COUNTIFS(C6:M6,"&gt;0.1",C6:M6, "&lt;0.5")+COUNTIFS(C7:N12, "&gt;0.1",C7:N12, "&lt;0.5")</f>
         <v>44</v>
       </c>
-      <c r="G26" s="35"/>
-      <c r="H26" s="36" t="s">
-        <v>120</v>
-      </c>
-      <c r="I26" s="31">
+      <c r="G26" s="33"/>
+      <c r="H26" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="I26" s="29">
         <f>COUNTIF(C5:M5, "&gt;0.5")+COUNTIF(C6:M6, "&gt;0.5")+COUNTIF(C7:N12, "&gt;0.5")</f>
         <v>17</v>
       </c>
-      <c r="J26" s="35"/>
+      <c r="J26" s="33"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A27" s="35"/>
-      <c r="B27" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="C27" s="30">
+      <c r="A27" s="33"/>
+      <c r="B27" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" s="28">
         <f>C26/E16</f>
         <v>0.35106382978723405</v>
       </c>
-      <c r="D27" s="35"/>
-      <c r="E27" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="F27" s="30">
+      <c r="D27" s="33"/>
+      <c r="E27" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="F27" s="28">
         <f>F26/E16</f>
         <v>0.46808510638297873</v>
       </c>
-      <c r="G27" s="35"/>
-      <c r="H27" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="I27" s="30">
+      <c r="G27" s="33"/>
+      <c r="H27" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="I27" s="28">
         <f>I26/E16</f>
         <v>0.18085106382978725</v>
       </c>
-      <c r="J27" s="35"/>
+      <c r="J27" s="33"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A28" s="35"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
+      <c r="A28" s="33"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -8222,6 +7932,16 @@
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="E25:F25"/>
   </mergeCells>
+  <conditionalFormatting sqref="C5:N12">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C13:N13">
     <cfRule type="colorScale" priority="2">
       <colorScale>
@@ -8242,21 +7962,26 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5:N12">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B0B59FDD0EE95B4E819A07D1C002C56C" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8271ae7bf0e717e1cdc9a3624dd260eb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f36db87d-28b1-437f-80db-dff7a914738a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cb96423d26ecf43e57c3d08852f5d8a6" ns2:_="">
     <xsd:import namespace="f36db87d-28b1-437f-80db-dff7a914738a"/>
@@ -8388,22 +8113,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B29FC48-DBEF-4B7D-9E6B-4C67F2490F1C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C8B54AC7-908A-41C4-9D3C-6B2A7749C1A2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DD1CF19-CEBE-4F92-BD73-1C1CB43EA12B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8419,21 +8146,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C8B54AC7-908A-41C4-9D3C-6B2A7749C1A2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B29FC48-DBEF-4B7D-9E6B-4C67F2490F1C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>